--- a/deuChatbot/research_result/table_to_json(3500_100).xlsx
+++ b/deuChatbot/research_result/table_to_json(3500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20710,6 +20710,6884 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 세부사항(모집단위, 실기종목, 준비물, 주제 등)을 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽고 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7959800887691479</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 선택하여 진행됩니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 있을 수 있습니다.
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지 3절을 사용합니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 있을 수 있습니다.
+이러한 실기시험은 학생들의 창의성, 표현력, 그리고 문제 해결 능력을 평가하는 데 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 종목과 관련된 모든 정보를 적절하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8119272213094039</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 중에서 선택할 수 있습니다.
+- **기초디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제 A와 주제 B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+    - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**:
+  - 준비물은 기초디자인과 동일합니다.
+이 정보는 디자인조형학과에서 실시하는 실기 고사를 위한 주요 내용입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 배드민턴과 축구의 인정 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8771644912652438</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>경기지도학과에서 배드민턴과 축구의 경우, 다음과 같은 대회들이 인정대회로 지정되어 있습니다.
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 대부분 정확하게 반영하고 있습니다. 그러나 "주어진 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 제공된 사물의 색상은 변경하지 말아야 합니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 추가된 정보가 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 내용을 잘 다루고 있습니다. 모든 주요 포인트가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 약간의 정확성 문제가 발생합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7531927205661809</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 주제A와 주제B 각각에서 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+주어진 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 제공된 사물의 색상은 변경하지 말아야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 점수가 동의대학교 학생부교과 전형에서 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 모든 전형 유형에서 출결의 반영 비율이 0%라는 정보도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 반복하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6741509525996576</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 각 전형 요소의 비율을 살펴보면, 모든 전형 유형에서 출결의 반영 비율은 0%입니다.
+예를 들어, "수능 위주" 전형명 중 하나인 "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)"에서 출결의 반영 비율은 0%입니다.
+따라서, 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9395341368216541</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2023년도 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 다군 일반학생 전형에 대한 정보도 포함하고 있습니다. 그러나 "교직에 대한 정보"라는 표현이 원문에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "교직에 대한 정보"라는 추가적인 내용이 원문에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 모집 인원에 대한 정보를 명확히 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "교직에 대한 정보"라는 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 정보가 잘 정리되어 있습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원에 대한 정보는 정확하지만, "교직에 대한 정보"라는 표현이 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문에 없는 정보를 포함하고 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있어 완벽하게 명확하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.695739575541242</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학의 영어영문학과 - 교직에 대한 정보를 보면, 다군 수능(일반학생전형) 모집인원이 28명이라고 기재되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 신입생 선발 인원에 대한 잘못된 정보를 제공합니다. 원문에서는 총 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 모집 인원이 공개되지 않았다고 주장하고 있습니다. 이는 사실과 상반되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서 명확히 언급된 모집 인원에 대한 정보가 누락되었고, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 부족합니다. 원문에서 요구하는 구체적인 모집 인원에 대한 정보가 제공되지 않고, 대신 다른 정보에 대한 언급이 포함되어 있어 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 관련성이 떨어져서 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 주장을 하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 주제와 관련된 정보가 부족합니다. 그러나 일부 정보는 적절하게 전달되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 저하됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.6029109968984708</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 정원 내 모집인원은 공개되지 않았습니다. 다른 단과대학이나 계열의 모집인원 정보는 제공되었습니다만, 간호학과에 대한 구체적인 정보는 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 대학 입학처와 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 영어 등급에 따른 점수를 잘못 제시하고 있으며, 원본 텍스트의 점수와 전혀 일치하지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본의 등급과 점수 체계와는 전혀 다른 등급 체계를 사용하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 원본 텍스트의 내용과는 관련이 없는 다른 등급 체계를 제시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 점수와 등급 체계에 대한 정확한 정보를 제공하지 않으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 원본 텍스트의 의미와는 전혀 다른 내용을 담고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8161995477298802</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- A+ : 100점
+- A : 95점 
+- B+ : 90점
+- B : 85점
+- C+ : 80점
+- C : 75점
+- D+ : 70점
+- D : 65점
+- F : 60점
+이 점수는 수능 영어 등급을 기준으로 변환된 점수입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 지원 자격과 제출 서류에 대한 정보를 제공하지만, 원문에서의 핵심 질문인 예술고 학생의 지원 가능성에 대한 답변과는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 구조적으로 잘 짜여져 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7346762290384939</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 지원 자격은 다음과 같습니다:
+1. **6년 과정**: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자로서, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자입니다.
+2. **12년 과정**: 부모의 거주지와 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자입니다.
+제출 서류는 다음과 같습니다:
+- **6년 과정**:
+  - 지원자 본인의 가족관계증명서 1부
+  - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+  - 중학교 학교생활기록부 1부
+  - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- **12년 과정**:
+  - 지원자 본인의 주민등록초본 1부
+  - 초등학교 학교생활기록부 1부
+  - 중학교 학교생활기록부 1부
+  - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면 위와 같은 자격 요건을 충족하고, 필요한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 기록과 배점을 정확하게 반영하고 있습니다. 그러나 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성을 위해서는 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지만, 추가된 테이블 정보는 원본 텍스트와 관련이 없으므로 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 기록과 배점에 대해 직접적으로 언급하고 있어 매우 관련성이 높습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 테이블이 원본 텍스트와의 연결성을 약간 떨어뜨리므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보는 정확하게 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않으므로 완전한 정확성을 위해 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 테이블 정보가 맥락에서 벗어나므로 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8712541654789138</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기(여) | Z-런(여) |
+|------|-------------------|----------|
+| 4    | 218~221           | 14.80~14.99 |
+따라서, 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트의 사실과 상반되는 내용을 포함하고 있습니다. 원본 텍스트는 경기지도학과의 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 출결 반영 비율에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 출결 반영 비율에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다. 대신, 다른 정보와 링크를 제공하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 읽기 어려운 부분이 있습니다. 문법적으로는 괜찮지만, 언어의 일관성이 부족합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보가 부정확하고 혼란스러운 부분이 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어렵고, 명확한 정보 전달이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5089613001535478</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>东义大学 경기지도학과의 출결 반영 비율은 제공된 정보에서 확인할 수 없습니다. 출결 상황이 학생부 종합 평가에 영향을 미치는지详细了解提供的信息后，关于东义大学的体育教育学专业（经跻指导方向）出勤情况是否会影响评价，并没有明确的信息。通常情况下，出勤记录可能会影响学生的综合评分，但具体到东义大学体育教育学专业的规定，请直接访问“https://ipsi. deu. ac. kr/main. do”以获取最准确的信息。
+如果您需要更详细的信息或有其他问题，欢迎继续提问！</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 "4명"이라는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원이 4명이라고 명확히 언급하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 공식 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있어 일부 관련성은 있지만, 주제에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 주제와 관련된 정보가 부족합니다. 그러나 추가 정보를 찾을 수 있는 링크를 제공하여 일부 의미적 적절성은 있지만, 전반적으로는 낮은 점수를 받습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어려울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.6914320531874448</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과의 정원 내 모집인원은 제공된 정보로는 확인할 수 없습니다. 다른 단과대학들의 모집 인원만이 포함되어 있습니다. 
+물리치료학과에 대한 정확한 모집인원을 알고자 한다면, "전형별 모집단위별 모집인원" 섹션에서 물리치료학과를 찾아보거나, 해당 대학의 공식 웹사이트나 입시 안내서를 확인해 보시는 것이 좋습니다. 
+더 궁금하신 점이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5275686840951729</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 명확히 반영하지 않고 있으며, 수능 최저기준이 없다는 정보를 누락하고 있습니다. 대신, 정보가 명확히 확인되지 않는다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저기준이 없다는 원문과 일치하지 않으며, 각 학과별로 다를 수 있다고 언급하고 있습니다. 이는 원문과 모순되는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 정보를 제공하려고 하지만, 원문에서 명시된 정보와는 관련이 적습니다. 그러나 대학 홈페이지나 입시 안내서에 대한 언급은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저기준이 없다는 사실을 정확히 반영하지 않고 있으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일치성이 떨어져서 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4704086547836917</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 명확히 확인할 수 없습니다. 수능 최저기준은 각 학과별로 다를 수 있으며, 해당 정보는 일반적으로 대학 홈페이지나 입시 안내서 등을 통해 확인할 수 있습니다. 만약 정확한 정보를 원하신다면, https://ipsi.deu.ac.kr/main.do 링크를 참조해 동의대학교의 공식 입시 안내 페이지에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 학과를 정확하게 나열하고 있으며, 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7563084573650755</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", 그리고 "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율은 정확하게 반영하고 있지만, 학생부 교과, 출결, 실기, 수능의 비율을 잘못 기재하고 있으며, 이 정보는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 추가 정보를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트는 전형요소 반영비율에 대한 간단한 설명만을 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 불필요한 추가 정보가 포함되어 있어 약간의 관련성이 떨어집니다. 그러나 전형요소 반영비율에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정보를 제공하지만, 추가된 정보가 원본 텍스트와의 논리적 흐름을 방해하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 비율을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 문맥에 맞지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 불필요한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8241791640172066</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+이와 같이, 이 전형에서는 학생부 교과와 서류가 주요하게 반영되며, 면접 비율도 높게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과를 언급하고 있으며, 수학 과목에 대한 가산점 부여 조건도 정확하게 설명하고 있습니다. 그러나 '의료·보건·생활대학'이 누락되어 있어 완전한 정보는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 공과대학과 ICT융합공과대학에 대한 정보를 제공하지만, 원본 텍스트에 포함된 다른 모집단위인 의료·보건·생활대학을 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 수능 가산점 적용 학과에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 의료·보건·생활대학을 언급하지 않음으로써 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수학 과목에 대한 가산점 부여 조건을 정확하게 설명하고 있지만, 모든 모집단위를 포함하지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 모든 모집단위를 포함하지 않아 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.816098242678128</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 공과대학과 ICT융합공과대학 모집단위입니다. 이들 학과에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.
+따라서, 공과대학과 ICT융합공과대학 모집단위에서 수능 가산점을 받을 수 있는 학생은 수학(미적분 또는 기하) 과목에 응시한 경우에 한하여 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 원문 내용을 왜곡하고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답에서는 각 영역이 25%를 차지한다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문은 수능 성적이 100% 반영된다고 명시하고 있으나, 생성된 응답은 각 영역의 비율을 제시하여 모순된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 원문과 관련이 있습니다. 그러나 원문에서 강조하는 100% 반영이라는 핵심 포인트를 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 영역과 비율에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다릅니다. 수능 성적이 100% 반영된다는 사실을 잘못 해석하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있습니다. 유창성과 일관성은 좋지만, 핵심 사실이 잘못 전달되어 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 중요한 부분이 왜곡되어 있습니다. 따라서 의미적 적절성은 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확하게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.72302946499186</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역이 25%를 차지합니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역의 표준점수 또는 등급 점수에 따라 평균을 구하여 합격 여부가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 날짜를 전혀 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 특정 날짜를 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 실기고사 날짜에 대한 질문에 대해 전혀 관련 없는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없는 내용으로 인해 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사 날짜에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬운 구조를 가지고 있으나, 내용이 부적절하여 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6475127554150837</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용은 없습니다. 다른 전형이나 모집단위, 학과 등에 대한 정보만 포함되어 있습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문하여 공식 안내사항을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외된다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원본 텍스트에서 제외된 학과와 생성된 응답에서 언급된 학과가 서로 다릅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 정보를 정확히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실관계에서 심각한 오류가 있으며, 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6421042769488109</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외됩니다. 
+이 정보는 "전형별 모집단위별 모집인원" 섹션에서 확인할 수 있으며, 해당 섹션의 "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)" 항목을 통해 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적으로 제공된 전형요소 반영비율 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 반복하여 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8095354501771295</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+다군 전형의 경우, 전형요소 반영비율을 확인할 수 있습니다. 해당 정보는 다음과 같습니다:
+```plaintext
+전형 유형: 수능 위주
+전형명: 다군 수능(일반학생전형) 전 모집단위
+모집 인원: 180
+사정 단계: 일괄 합산
+전형요소 반영비율(%): 
+- 학생부 교과: 0
+- 출결: 0
+- 서류: 0
+- 면접: 0
+- 실기: 0
+- 수능: 100
+수능최저기준: 수능최저기준 없음
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과의 변경 사항이 나열되어 있지만, 생성된 응답은 보육가정상담학과에만 초점을 맞추고 있어 전체적인 정보는 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 보육가정상담학과의 변경 사항을 정확히 반영하고 있습니다. 그러나 다른 학과의 변경 사항에 대한 언급이 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 학과의 분리 및 명칭 변경에 직접적으로 관련이 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 명칭 변경에 대한 설명이 명확합니다. 그러나 여러 학과의 변경 사항을 다루지 않아서 전체적인 일관성은 다소 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 변경 사항에 대해 정확하게 설명하고 있지만, 원본 텍스트의 다른 학과에 대한 정보는 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 정보의 완전성이 부족하여 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5426724261120438</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에 따라 학부에서 학과로 분리된 것으로 보입니다.
+상세 내용은 다음과 같습니다:
+- 2023학년도: 보육·가정상담학과
+- 2024학년도: 아동학과
+이와 같이 명칭 변경 및 분류 변경이 이루어졌습니다. 더 자세한 정보는 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 원서접수 마감일과 시간은 정확하게 언급되었으나, "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않다. 접수 사이트에 대한 정보는 원본에 포함되어 있지 않으므로, 이 부분은 부가적인 정보로 간주된다.
+2. Consistency Score (1-5): 3
+   - 설명: 원서접수 마감일과 시간은 일치하지만, "인터넷"이라는 표현이 원본 텍스트와는 다소 차이가 있다. 또한, 접수 사이트에 대한 정보는 원본에 없으므로 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 다만, "인터넷"이라는 표현이 다소 어색하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 자연스럽다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨린다.
+6. Accuracy Score (1-5): 4
+   - 설명: 마감일과 시간은 정확하지만, 추가된 정보(인터넷 접수 및 사이트)는 원본에 포함되어 있지 않으므로 완전한 정확성은 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이지만, 원본과의 일관성 및 정확성에서 약간의 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 약간의 부적절함이 느껴질 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7867981551497992</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 마감 시간은 오후 6시까지이며, 접수 사이트는 `http://ipsi. deu. ac. kr` 또는 `http://www. uwayapply. com` 입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 2024학년도 전형 요소 변화에 대한 일부 정보를 포함하고 있지만, 모든 전형에 대한 변화를 다루지 않고 있습니다. 특히, '학생부종합(성인학습자전형)'과 '실기/실적(경기실적우수자전형)'에 대한 정보가 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 일부 정보가 일관되지만, 전체 전형에 대한 변화를 다루지 않기 때문에 일관성 점수는 3으로 평가합니다. 특히, 전형명이나 지원 자격에 대한 언급이 있지만, 다른 전형에 대한 정보가 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 2024학년도 전형 요소 변화에 대한 질문에 적절하게 응답하고 있습니다. 그러나 모든 전형에 대한 정보를 포함하지 않기 때문에 완전한 관련성은 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 모든 전형에 대한 정보를 포함하지 않기 때문에 완전한 일관성은 부족합니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전체 전형에 대한 변화를 다루지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 정확성에서 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 모든 전형에 대한 정보를 포함하지 않기 때문에 완전한 의미 적합성은 부족합니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7669631058975819</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영비율이 변경된 전형들은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 2023학년도: 서류(학생부)70%+면접30%
+   - 2024학년도: 서류(학생부)60%+면접40%
+이 외에 전형명이나 지원 자격, 평가 영역 등은 동일하게 유지되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다. 추가적인 세부사항도 제공되지만, 원본의 핵심 정보는 변함없이 유지되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 세부사항도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8301556921543303</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다. 
+상세 내용은 다음과 같습니다:
+- 학생부 교과: 18%
+- 출결: 12%
+- 서류(실적): 70%
+따라서, 실기의 비중은 총점의 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 원본의 내용을 잘 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8520977676764359</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 학부는 다양한 삶의 분야와 관련된 전문성을 기르기 위해 세분화된 세 가지 전공을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '한의예과'라는 잘못된 정보를 포함하고 있으며, 원본 텍스트에 명시된 '체육학과'와 '레저스포츠학과'를 전혀 언급하지 않고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 포함된 학과와는 전혀 다른 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 공식 홈페이지 링크를 제공하여 추가 정보를 얻을 수 있다는 점에서 일부 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한 문장으로 구성되어 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 그러나 문장 자체는 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있지만, 실기고사와 관련된 주제를 다루고 있다는 점에서 일부 적절성을 가지고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6193915447574324</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사에 참여해야 하는 학과로는 한의예과가 있습니다. 다른 학과에서는 실기고사를 요구하지 않습니다. 만약 자세한 정보가 필요하시다면 공식 홈페이지를 확인해 보시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에 명시된 학과 목록과 일치하지 않습니다. 특히, '가군'과 '나군' 전형에 대한 설명이 추가되었으나, 원본 텍스트에서 제공된 학과 목록과의 일관성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 학과 목록과 일치하지 않으며, '가군'과 '나군' 전형에 대한 설명이 원본 텍스트의 정보와 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 학과 목록을 정확히 반영하지 못해 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하는 데 어려움이 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 학과 목록에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 다르게 해석될 수 있는 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6110194601555413</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '가군 실기/실적(일반학생전형)'과 '나군 실기/실적(일반학생전형)'이 있습니다. 이 두 학과는 레저스포츠학과와 태권도학과를 제외한 모든 학과에 해당됩니다.
+- **가군 실기/실적(일반학생전형)**: 레저스포츠학과, 태권도학과를 제외한 전 모집단위에서 지원 가능합니다.
+- **나군 실기/실적(일반학생전형)**: 디자인조형학과와 체육학과를 제외한 전 모집단위에서 지원 가능합니다.
+따라서, 실기/실적 위주 전형인 '가군 실기/실적(일반학생전형)'과 '나군 실기/실적(일반학생전형)'을 지원하려면 해당 학과를 확인하시고 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8008211909847491</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+따라서, 2024학년도 동의대학교에서는 라이프융합학부를 신설하여 위와 같은 세 가지 전공을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형에 지원할 수 있다는 점에서 일관성을 보이지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 특수목적고등학교 학생의 지원 가능성에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서는 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 특수목적고등학교 학생의 지원 가능성에 대한 정확한 정보를 제공하지만, 농어촌학생전형에 대한 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 일부 세부사항이 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.665662075705257</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以申请동义大学的一般学生招生类型。根据提供的信息，在"고교유형별 지원자격"部分中：
+- 特殊目的高中学生的资格包括：
+  - 科学高中、国际高中和外语高中：支持
+  - 艺术高中、体育高中：支持
+  - 技工高中：支持
+因此，特殊高中学生是可以申请东义大学的一般学生招生类型的。你可以继续查看具体的招生要求和其他相关信息。
+더 자세한 정보를 확인하시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 모집 인원에 대한 정보가 잘못되었습니다. 원본 텍스트에 따르면 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로, 총 32명을 모집한다고 명시되어 있습니다. 그러나 생성된 응답에서는 중어중국학과의 모집 인원이 24명으로 잘못 기재되어 있으며, 신소재공학과에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답에서는 신소재공학과에 대한 정보가 전혀 없고, 중어중국학과의 모집 인원도 잘못 기재되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 신소재공학과에 대한 언급이 없기 때문에 완전한 관련성을 갖추지 못했습니다. 그러나 중어중국학과에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 정보의 정확성이 떨어지기 때문에 약간의 유창성에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과별 모집 인원을 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 중어중국학과의 모집 인원과 신소재공학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하고 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 제시되어 있습니다. 그러나 정보의 정확성이 떨어지기 때문에 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7836204670011496</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과를 확인해보겠습니다.
+제공된 정보에 따르면, 각 학과별로 모집 인원이 다음과 같습니다:
+1. 인문사회과학대학 국어국문학과: 9명
+2. 인문사회과학대학 중어중국학과: 24명
+3. 인문사회과학대학 일본학과: 5명
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과는 **인문사회과학대학 중어중국학과**입니다 (24명).</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 언급하고 있어, 원문과 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서는 지원이 불가능하다고 명시되어 있는데, 생성된 응답에서는 지원이 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 신뢰도는 낮습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 상반된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5854111048672763</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请东义大学的学生部教科农村学生选拔类型。
+根据提供的信息，在“나군 (一般学生类型)”下的“학생부교과 (农渔村学生类型)”中，对于“특수목적고등학교”（特殊目的高中）的学生是可以支持申请的。具体如下：
+```
+"모집단위": "전 모집단위",
+"전형명":  "학생부교과(농어촌학생전형)",
+"고교유형별 지원자격": {
+    ...
+    "특수목적고등학교": "지원 불가능"
+}
+```
+从上述信息可以看出，对于“특수목적고등학교”（特殊目的高中）的学生来说，“나군 (一般学生类型)”下的“학생부교과(농어촌학생전형)”是不支持申请的。因此，你作为特殊目的高中学生不能通过东义大学的学生部教科农村学生选拔类型进行申请。
+如果你有其他疑问或需要进一步的信息，请访问 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看详细信息。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 성적 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6121676713875134</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 그러나 "최초합격자 평균성적의 데이터"라는 표현은 원본의 "합격자 평균 성적"과 약간의 차이가 있어 다소 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "다른 관련 정보만이 포함되어 있습니다."라는 문장은 원본 텍스트에서 명시된 내용과는 다소 차이가 있어 약간의 일관성 문제를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "최초합격자 평균성적의 데이터"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "다른 관련 정보만이 포함되어 있습니다."라는 문장이 다소 불명확하여 일관성을 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "최초합격자"라는 표현이 원본의 "합격자"와 다소 차이가 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 전반적으로 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 혼동을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있어 이해도를 약간 저하시킬 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.778795252691251</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 최초합격자 평균성적의 데이터가 없습니다. 다른 관련 정보만이 포함되어 있습니다. 
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 공고나 통계를 확인해보시거나, 해당 대학의 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록과 충원 합격자 등록에 대한 추가적인 세부사항이 포함되어 있어 원본 텍스트와는 다소 차이가 있습니다. 원본 텍스트에는 등록 일정이 명시되어 있지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 부족합니다. 특히 등록 일정과 관련된 정보가 원본 텍스트에 없기 때문에, 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으나, 추가된 등록 정보가 원본 텍스트와는 관련이 있지만, 원본의 핵심 내용에 비해 다소 부가적인 정보로 여겨질 수 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 포함하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 특히 등록 일정에 대한 정보는 원본에 명시되어 있지 않으므로 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본의 의도와는 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8122737342526072</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 
+  - 날짜: 2024년 2월 2일(금) 14:00
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **최초 합격자 등록**: 
+  - 날짜: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **충원 합격자 발표 및 등록**: 
+  - 1차 발표:
+    - 날짜: 2024년 2월 14일(수) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 1차 등록:
+    - 날짜: 2024년 2월 14일(수) 09:00 ~ 16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 2차 발표:
+    - 날짜: 2024년 2월 15일(목) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 2차 등록:
+    - 날짜: 2024년 2월 15일(목) 09:00 ~ 16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **충원 합격자 발표 및 등록 (3차 이후)**:
+  - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트는 나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정이 2024년 1월 20일이라고 명시하고 있지만, 생성된 응답은 다른 학과의 실기고사 일정만을 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 실기고사 일정은 서로 관련이 없고, 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문인 면접고사 일정에 대한 직접적인 답변을 제공하지 않습니다. 실기고사 일정은 언급되지만, 이는 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 실기고사 일정이 언급되지만, 면접고사 일정과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못된 정보로 대체되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 주제와 관련된 정보가 부족합니다. 그러나 실기고사 일정이 언급된 점에서 일부 적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4815476232047886</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 나군 면접고사는 다음과 같은 일정에 있습니다:
+- **레저스포츠학과**의 실기고사 (제자리 멀리뛰기, Z-런)는 2024. 01. 16.(화)입니다.
+- **태권도학과**의 실기고사는 2024. 01. 17.(수)입니다.
+대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다. 모든 내용이 원본과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있는 구조를 가지고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.604210500826855</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 명시는 없습니다. "수능최저기준" 항목에서는 "수능최저기준 없음"이라고 표기되어 있습니다.
+따라서, 한의예과의 경우 수능 최저 기준이 설정되지 않았으며, 이에 따라 특정한 최저학력 기준도 존재하지 않습니다. 
+만약 더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 잘 다루고 있으며, 관련된 정보를 추가로 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.6451349260112195</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 정시전형으로 지원할 때 수능 최저학력 기준은 없습니다. 각 모집단위별로 수능 위주로 전형을 실시하며, 수능최저기준이 없음을 확인하였습니다.
+따라서 정시전형에 지원하려면 수능 점수가 필요하지만, 최저학력기준은 설정되어 있지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표가 2024년 2월 15일에 이루어진다고 언급하고 있지만, 1차 충원합격자 발표와 등록이 이루어지는 날이라는 부분은 사실과 다릅니다. 1차 발표는 2월 14일에 이루어지므로 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일을 언급하고 있지만, 1차 발표일과 관련된 정보가 잘못되어 있어 일관성이 떨어집니다. 1차 발표일과 2차 발표일이 혼동되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 그러나 1차 발표일과 관련된 정보가 잘못되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표일에 대한 정확한 정보를 제공하지만, 1차 발표일에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성이 높고, 읽기 쉬우며, 논리적으로 연결되어 있지만, 사실성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 1차 발표일에 대한 잘못된 정보가 의미 전달에 약간의 영향을 미칩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7701316528470394</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)에 충원합격자 발표가 이루어집니다. 이날은 1차 충원 합격자 발표와 등록이 이루어지는 날입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에 명시된 충원합격자 발표 일정에 대한 정보를 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 원본 텍스트에는 발표 일정이 명확히 나와 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트의 발표 일정과 관련된 정보가 전혀 반영되지 않았고, 오히려 잘못된 주장을 하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 충원합격자 발표 일정에 대한 정보인데, 생성된 응답은 그와 관련 없는 웹사이트 방문을 권장하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 발표 일정에 대한 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4155567520660216</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 추가합격자 발표일자가 포함되어 있지 않습니다. 추가합격자 발표일자는 일반적으로 대학의 입시 일정에 따라 결정되며, 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 입시 안내를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시모집 등록자의 결원에 대한 정보를 제공하고 있지만, 추가 모집 여부에 대한 명확한 답변을 제공하지 않고 있습니다. 원문에서 언급된 내용과는 다소 차이가 있으며, 추가 모집이 이루어질 경우에 대한 일반적인 정보만을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 추가 모집에 대한 명확한 언급이 없고, 원문에서 제시된 조건을 충분히 반영하지 못하고 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가 모집에 대한 질문에 대한 답변을 시도하고 있습니다. 그러나 원문에서 명시된 내용에 대한 직접적인 언급이 부족하여 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 완전히 반영하지 못하고 있으며, 추가 모집에 대한 구체적인 정보가 부족합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어진다고 평가할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있으나, 추가 모집에 대한 명확한 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5071671118077828</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 보면, 현재는 정원 내 모집 인원이 각 학과에 설정되어 있으며, 추가 모집 단위가 명시적으로 언급되지 않았습니다. 따라서 추가 모집 여부는 확인할 수 없습니다. 만약 추가 모집이 이루어질 경우, 일반적으로 공지사항이나 입학 안내 홈페이지에서 공고될 것입니다.
+추가 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보시거나, 직접 학교 입학관리팀에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 성인 학습자를 대상으로 하는 전형에 대한 설명을 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 전형의 구체적인 세부사항(모집단위, 지원자격, 제출서류 등)을 누락하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 평생학습자전형의 구체적인 정보와 절차를 설명하고 있지만, 생성된 응답은 전형의 일반적인 특성과 평가 요소에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 원본 텍스트의 주요 내용(모집단위, 지원자격, 제출서류 등)과는 관련성이 낮습니다. 그러나 성인 학습자에 대한 언급은 어느 정도 관련이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 전형의 세부사항을 잘못 설명하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 시도하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.4953373823689581</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 전형입니다. 이 전형에서는 학교생활기록부, 서류평가, 면접평가 등을 통해 지원자의 학업역량과 전공적합성을 평가합니다.
+1. **서류평가**:
+   - **공동체역량**: 협업능력 등 공동체 목표를 위한 협력적 태도와 배려, 학교폭력 여부 등을 평가합니다.
+   - **학업역량**: 학업에 대한 흥미 및 주도적 노력, 수업시간의 적극적 참여, 학업 성취정도, 학년별 성적 추이 등을 평가합니다.
+   - **전공적합성**: 지원자가 지원하는 전공(계열)과 관련된 활동과 경험, 학업의지, 학교생활의 적극적 참여 등을 평가합니다.
+2. **면접평가**:
+   - **학업역량**: 문제해결능력 등 학업 역량을 평가합니다.
+   - **전공적합성**: 진로 정보 탐색 능력을 평가하며, 지원자가 지원하는 전공(계열)에 대한 관심과 이해를 확인합니다.
+3. **평가영역 및 배점**:
+   - **공동체역량**: 1등급 140점, 2등급 129.5점 등으로 평가됩니다.
+   - **학업역량**: 1등급 280점, 2등급 259점 등으로 평가됩니다.
+   - **전공적합성**: 1등급 280점, 2등급 259점 등으로 평가됩니다.
+4. **면접평가 방법**:
+   - 개별면접으로 진행되며, 입학사정관 2인이 평가위원이 되어 수험생을 대상으로 평가합니다.
+   - 블라인드 면접 방식으로 개인 신상 정보 노출 금지 및 교복 착용 금지를 실시합니다.
+5. **면접평가 질문 공통문항**:
+   - 지원동기와 학업계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력 등에 대해 질문됩니다.
+이러한 평생학습자전형은 성인 학습자의 특성을 반영하여 전문적인 교육을 제공하고자 하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직 기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 맥락에 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6579298756815659</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공 단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시 근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입된 사업체 (창업 또는 자영업자 포함)
+2. 재직 기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직 기간이 3년 이상(예정)이어야 함
+   - 재직 기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정됩니다.
+   - 2개 이상의 산업체에 재직한 경우 총 재직 기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않습니다.
+   - 군 의무 복무 경력도 재직 기간으로 인정됩니다.
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 명시된 날짜와 시간에 대한 언급이 없습니다. 그러나 실기고사에 대한 일반적인 정보와 웹사이트 링크를 제공하여 일부 유용한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있으며, 실기고사에 대한 구체적인 장소가 언급되지 않았다는 점에서 일관성이 떨어집니다. 그러나 실기고사에 대한 추가 정보를 찾을 수 있는 방법을 제시하여 일부 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 관련된 정보를 제공하고 있으며, 실기고사에 대한 추가 정보를 찾을 수 있는 웹사이트를 언급하여 관련성을 높이고 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사에 대한 정보와 추가적인 웹사이트 링크를 통해 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 그러나 실기고사에 대한 일반적인 정보는 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부 유용한 정보를 제공하지만 원본 텍스트의 구체적인 사실을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 실기고사에 대한 추가 정보를 찾을 수 있는 방법을 제시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으며, 실기고사에 대한 정보를 쉽게 이해할 수 있도록 잘 설명하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3964467203620493</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소는 언급되어 있지 않습니다. 실기고사를 위해 필요한 장소는 고시 내용이나 해당 교육 기관에서 공지하는 정보에 따라 다릅니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보세요. 그곳에서는 실기고사와 관련된 모든 세부 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과와 태권도학과의 실기고사 항목에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 제공된 정보는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 태권도학과의 실기고사 항목에 대한 정보가 포함되어 있습니다. 원본 텍스트의 내용과는 상충되는 정보가 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 내용과는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 태권도학과의 실기고사 항목에 대한 설명이 포함되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 체육학과의 실기고사 항목에 대한 정보를 제공하고 있으며, 이는 정확성이 떨어지는 것으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하고, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3454113878824377</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 태권도학과와 동일한 곳으로 진행됩니다. 
+태권도학과의 실기고사 내용을 참고하면, 체육학과의 실기고사에서도 다음과 같은 항목이 포함될 것입니다:
+1. **제자리 멀리뛰기 (cm)**: 남학생은 248～251cm, 여학생은 198~201cm를 기준으로 합니다.
+2. **Z-런**: 남학생은 15.80∼15.99m, 여학생은 16.70~16.89m를 기준으로 합니다.
+따라서 체육학과의 실기고사는 태권도학과와 동일한 항목을 포함하여 진행될 것입니다. 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 한다고 잘못 언급하고 있습니다. 이는 원본 텍스트와 명백히 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공합니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보가 있을 것이라고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다. 전화 통보에 대한 잘못된 정보가 응답의 일관성을 해칩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 전화 통보가 이루어진다고 잘못 진술하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 맥락과 맞지 않는 정보를 제공하고 있어 의미 전달이 왜곡됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6581446303460552</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원합격자 발표 후에는 개별 전화 통보를 통해 합격자를 안내할 예정입니다. 그러나 정확한 일정은 아직 공지되지 않았습니다. 따라서 최신 정보를 얻기 위해서는 입학안내 홈페이지나 공고된 연락처를 확인하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 원본 텍스트가 한국어로 작성된 반면, 생성된 응답은 중국어로 작성되어 있어 언어적 차이가 있습니다. 그러나 정보의 본질은 일치합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있습니다. 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있으며, 추가적인 정보 제공 방법도 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고, 필요한 경우 확인할 수 있는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 언어적 차이로 인해 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성은 높습니다. 그러나 언어적 차이로 인해 원본의 의미가 완전히 전달되지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 언어적 차이로 인해 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 다소 낮습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7094106298240103</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。根据提供的上下文，主要描述了各个专业的招生类型、录取人数等信息，并没有包含具体的招生结果数据。
+如果您需要了解2023学年警察行政学系的具体招生结果，请访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室，他们能够提供最准确的招生结果信息。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "정시에 수능을 응시하지 않아도 다양한 전형으로 지원이 가능합니다."라고 주장하지만, 원문에서는 "정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다."라고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상반된 내용을 포함하고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 다양한 전형에 대한 정보를 제공하지만, 원문 질문에 대한 직접적인 답변이 아닙니다. 원문은 수능 응시에 대한 질문인데, 생성된 응답은 다른 전형에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정면으로 반대되는 내용을 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충되는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.478620032472742</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>네, 정시에 수능을 응시하지 않아도 다양한 전형으로 지원이 가능합니다. 예를 들어:
+1. **학생부종합전형**: 학생부와 면접을 통해 평가받습니다.
+2. **평생학습자전형 / 성인학습자전형 / 재직자전형**: 이들 전형은 일반적으로 수능 점수가 아닌, 지원자의 경력과 학생부를 기반으로 평가됩니다.
+특히, **농어촌학생전형**이나 **조기취업형계약학과전형** 등에서는 수능 성적이 아닌 다른 요소들을 중점적으로 평가합니다. 따라서 수능을 응시하지 않아도 해당 전형에 지원할 수 있습니다. 
+具体的来说，即使你不参加高考，你仍然可以通过以下几种方式申请：
+1. **综合评价入学（学生部综合）**：主要通过学生的学生成绩单和面试来进行评估。
+2. **终身学习者/成人学习者/在职人员入学**：这些类型的入学通常不依赖于高考成绩，而是侧重于申请者的经历和个人表现。
+特别是**农村地区学生入学**或**提前就业型合同专业入学**等类型，在这些情况下，高考成绩并不是主要的评价标准。因此即使你不参加高考，也可以通过上述方式申请。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났을 경우 정시 지원이 어렵다고 주장하고 있지만, 원문에서는 졸업 시기와 상관없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 정시 지원 가능성에 대한 내용이 서로 모순됩니다. 원문은 지원이 가능하다고 하였으나, 생성된 응답은 어렵다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 주제에서 벗어난 정보(특정 전형에 대한 설명)가 포함되어 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 다르게 해석되고 있으며, 일부 내용은 적절하지 않을 수 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 사용되었습니다. 다만, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6195091694805399</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 고등학교 졸업 후 10년이 지났다면 일반적으로 정시 모집에 지원하는 것은 어렵습니다. 대학의 경우 대부분의 학교는 최소한 최근 3년 이내의 고등학교 교육을 이수한 자에게만 지원 자격을 부여하고 있습니다.
+하지만, 특정 전형에서 예외적인 지원이 가능할 수 있으므로, "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"에 지원하는 것을 고려해볼 수 있습니다. 이 전형은 성인 학습자를 대상으로 하며, 재직 경력이나 평생 학습 경험 등을 종합적으로 평가합니다.
+만약 이러한 전형을 선택한다면, "나군 학생부종합(성인학습자(정원내·외)전형)"에 지원하는 것이 적절할 수 있습니다. 이 전형의 경우 서류와 면접 비율이 각각 70%와 30%로 설정되어 있으며, 성인 학습자의 경력을 종합적으로 평가합니다.
+자세한 내용은 해당 대학의 입시 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7686193809141778</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감일은 18시까지입니다. 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출하며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)에 실시되며, 대기실 및 입실시간 안내는 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)에 실시되며, 대기실 및 입실시간 안내는 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록은 2월 2일 (금) 14:00에 이루어집니다. 이때는 홈페이지에서 개별 조회가 가능하며, 고지서 교부와 등록장소는 학교 지정은행입니다.
+   - 2월 7일 (수)부터 13일 (화)까지 등록금을 납부할 수 있습니다.
+이러한 일정에 따라 원서를 접수하고, 필요하다면 서류를 제출하며, 실기고사를 치르고, 최종적으로 합격자 발표와 등록금 납부가 이루어집니다. 자세한 내용은 입학안내 홈페이지에서 확인하시거나, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8848407741249973</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고가 됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 2024년 1월 6일 (토)까지 원서를 접수하며, 마감일은 18시까지입니다. 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 2024년 1월 12일 (금)까지 서류를 제출하며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **실기고사**: 
+   - 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일 (화)에 진행됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+   - 디자인조형학과, 산업디자인, 공예디자인, 체육학과의 실기고사는 2024년 1월 17일 (수)에 진행됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00에 이루어집니다. 이때부터 합격자들의 홈페이지에서 개별 조회가 가능하며, 고지서를 받을 수 있습니다.
+   - 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+이 일정은 2024년 동의대학교 정시 모집에 대한 일반적인 일정입니다. 자세한 내용이나 변경 사항은 입학안내 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 부정확하게 전달하고 있습니다. 응답에서는 수능 미응시자가 지원할 수 있는 전형에 대한 정보가 없다고 언급하고 있으며, 일반적으로 특별전형이나 학생부종합전형을 통해 지원할 수 있다고 하지만, 이는 사실과 다릅니다. 수능 미응시자는 지원이 불가능하다는 명확한 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 수능 미응시자가 지원할 수 있는 가능성을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 수능 미응시자에 대한 정보가 잘못 전달되고 있어, 주제와의 관련성이 다소 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 수능 미응시자에 대한 정보가 명확하지 않아 응답의 일관성이 떨어지며, 정보가 서로 연결되지 않는 느낌을 줍니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 잘못 해석하고 있으며, 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 큰 문제를 보이고 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 잘못된 해석은 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 명확한 정보 전달이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7739693814500104</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 내용을 찾지 못했습니다. 수능 미응시자의 경우, 일반적으로 특별전형이나 학생부종합전형 등을 통해 지원할 수 있는 경우가 많습니다.
+만약 동의대학교에서 특정 전형에서 수능 미응시자도 지원이 가능한 경우에는 해당 전형의 세부 조건을 확인해야 합니다. 제공된 정보에는 그런 내용이 포함되어 있지 않아, 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 방문하여 정시 모집 전형에 대한 세부 사항을 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 전년도에 충원 합격이 36명까지 이루어졌다는 사실도 무시되었습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 3차까지의 충원 합격이 이루어졌다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제공하는 중요한 정보(충원 합격 차수에 대한 정보가 없음)를 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 내부적으로는 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 이를 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 주장을 포함하고 있습니다. 원문에서 명시된 내용을 무시하고 있기 때문입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5609875683065659</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2023년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 각 차례별로 일정이 다음과 같습니다:
+1차: 2024년 2월 14일 (수) 09:00
+2차: 2024년 2월 15일 (목) 09:00~16:00
+3차 이후: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+이와 같이 2023년도에는 3차까지의 충원 합격이 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 전화번호를 무시하고 다른 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 전화번호에 대한 정보와 관련이 적습니다. 전화번호를 확인하라는 내용은 있지만, 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호가 포함되어 있다는 사실을 무시하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 전화번호에 대한 정보가 누락되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6878187246713301</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 확인하기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트로 접속하여 확인해보시거나, 공식 연락처 정보를 찾아보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격 사실이 확인된다고 주장하지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격 사실이 확인된다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 그러나 전반적으로 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원문에서의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 정확성이 결여되어 있습니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 부족하고, 사실관계와 일관성에서 큰 문제를 보이므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과의 일치성이 떨어져 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 차이로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.620534044120278</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 그러나 이 경우에는 다음과 같은 절차를 따르게 됩니다.
+1. **개별 전화 통보 시 안내**: 합격자 발표 이후 3차 충원까지의 각 단계에서 개별 전화 통보가 이루어집니다.
+2. **전화 통화 실패 시 처리**: 만약 전화 통화가 되지 않는 경우, 합격 사실은 홈페이지를 통해 개별적으로 확인할 수 있습니다.
+3. **고지서 교부**: 합격자 고지서는 홈페이지에서 출력하거나 입학관리팀에서 직접 수령할 수 있습니다.
+4. **등록장소**: 등록을 위해서는 학교 지정은행으로 이동하여 등록금을 납부해야 합니다.
+따라서, 전화 통화가 되지 않는 경우에도 합격자로서의 절차를 따르게 됩니다. 중요한 정보는 홈페이지에서 확인하고, 필요시 입학관리팀에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 정보를 제공하고 있으며, 대부분의 내용이 원본 텍스트와 일치합니다. 그러나 '고교 졸업증명서'와 같은 추가 서류는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, '고교 졸업증명서'와 같은 추가 서류를 언급함으로써 일관성이 떨어집니다. 원본 텍스트에 포함되지 않은 정보가 추가되어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다. 주제에 대한 적절한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실이 정확하지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7765527674008312</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르지만, 일반적으로 다음과 같은 서류가 필요합니다.
+### 6년 과정
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 12년 과정
+1. **지원자 본인의 주민등록초본** (1부)
+2. **초등학교 학교생활기록부** (1부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+### 추가 제출서류
+- **고교 졸업증명서, 지원자 본인, 부모 초본 각 1부** (총 3부) (6년 과정의 경우)
+- **고교 졸업증명서, 지원자 본인 초본 1부** (12년 과정의 경우)
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다. 자세한 내용은 해당 대학의 입시 홈페이지를 확인하시거나 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 부분이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 필요한 서류를 나열하고 있습니다. 다만, 추가 서류에 대한 설명이 부족하여 약간의 일관성 문제가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가 서류에 대한 설명이 부족하여 완전한 일관성에는 다소 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 세부사항이 누락되어 있어 의미의 완전성에는 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8438460412112114</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 저소득 기회균등 전형이 실시되지 않는다는 점도 명확히 언급하고 있습니다. 그러나 "대구교육대학교 입학처"에 대한 언급은 원문과 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, "대구교육대학교 입학처"에 대한 언급은 원문과의 일관성을 떨어뜨립니다. 원문은 동의대학교에 대한 정보인데, 대구교육대학교로의 언급은 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 질문에 대한 답변으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "저소득 기회균등 전형으로 지원하는 것은 불가능합니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "대구교육대학교" 언급으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원문에서 제공하는 정보와 대체로 일치하지만, 대구교육대학교에 대한 언급이 정확하지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 대구교육대학교에 대한 언급이 맥락에 맞지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문구가 약간 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.698952588060497</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024년도 나군 정시 모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 따라서 저소득 기회균등 전형으로 지원하는 것은 불가능합니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나 대구교육대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 무시하고, 2.5 등급이 그대로 평균산출된다고 주장하고 있습니다. 이는 원문에서 명시된 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 절사 여부에 대한 정보가 없다고 명시했으나, 생성된 응답은 절사가 없다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있으나, 원문에서 언급된 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다. 그럼에도 불구하고 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 반복되어 다소 중복된 느낌을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서의 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서의 정보가 무시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 부족하고, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서의 정보와 상충하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5947664226404047</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 그대로 2.5 등급으로 평균산출을 합니다. 절사(절단)는 하지 않습니다. 즉, 사탐 2 과목의 등급을 평균산출할 때 2.5 등급은 그대로 포함됩니다.
+예를 들어, 수능 4개 영역 중 사탐이 2과목인 경우:
+- 1과목: 3등급
+- 2과목: 2.5등급
+이때 평균산출은 (3 + 2.5) / 2 = 2.75 등급으로 계산됩니다.
+따라서, 2.5 등급이 나오더라도 그대로 2.5 등급으로 평균산출을 합니다. 절사(절단)는 하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 있다는 사실을 정확하게 반영하고 있으며, 각 발표 날짜도 올바르게 언급하고 있습니다. 그러나 "세 번째 충원은 3차 이후로"라는 표현은 약간의 혼동을 줄 수 있습니다. 3차 발표 이후에 개별 전화 통보가 이루어진다는 점은 명확히 전달되었지만, 3차 발표 자체에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 발표 일정과 방식에 대한 설명이 일치하며, 전반적으로 일관된 내용을 유지하고 있습니다. 다만, "세 번째 충원은 3차 이후로"라는 표현이 약간의 모호함을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다. 발표 일정과 방식에 대한 정보가 잘 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "세 번째 충원은 3차 이후로"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 순차적으로 설명되고 있습니다. 다만, "세 번째 충원은 3차 이후로"라는 부분이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 발표 일정과 방식에 대한 정보가 정확합니다. 그러나 "세 번째 충원은 3차 이후로"라는 표현이 다소 부정확하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 다만, 약간의 모호함이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "세 번째 충원은 3차 이후로"라는 표현이 의미적으로 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 약간의 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8144286292936426</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 첫 번째 충원은 2024년 2월 14일(수)에 발표되며, 두 번째 충원은 같은 날인 2024년 2월 15일(목)에 발표됩니다. 세 번째 충원은 3차 이후로, 이는 개별 전화 통보를 통해 이루어집니다. 따라서 최종적으로 3차까지의 합격자 발표가 있음을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적에 대한 정보를 제공하고 있으며, 수능 성적이 4.6이라는 점수를 긍정적으로 평가하고 있습니다. 그러나 수능 최저 기준에 대한 정보가 없음을 가정하고 있다는 점에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 수능 성적이 높다고 해서 합격이 보장되지 않는다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 수능 최저 기준이 없음을 가정하는 부분에서 원본 텍스트의 정보와 일치하지 않는 점이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 e-비즈니스학과의 수능 성적과 추가 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 수능 최저 기준에 대한 가정이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 성적에 대한 정보와 추가 합격 가능성에 대한 설명이 정확하지만, 수능 최저 기준에 대한 가정이 다소 불확실성을 내포하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 수능 최저 기준에 대한 가정이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5863971565526146</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 경우, 해당 정보에서 직접적인 수능 최저 기준을 확인하지 못했습니다. 따라서 e비즈니스학과의 수능 최저 기준이 없음을 가정하겠습니다.
+만약 e비즈니스학과가 "수능 위주" 전형으로 운영되고 있다면, 지원자의 수능 점수가 4.6이라는 것은 좋은 성적입니다. 그러나 정시 전형에 추가 합격 가능 여부는 단지 수능 성적이 높다고 해서 결정되는 것이 아닙니다.
+정시 전형의 경우 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 점수**: 지원자의 수능 점수가 학교에서 정한 최저 기준을 충족하는지 여부.
+2. **학생부 교과 성적**: 일부 학교에서는 학생부 교과 성적이 중요한 요소로 작용할 수 있습니다.
+3. **면접 결과** (만약 면접이 포함된 전형이라면).
+4. **실기 점수** (특정 전형에서 실기가 요구되는 경우).
+따라서 e비즈니스학과의 정시 전형에 추가 합격 가능 여부는 위 요소들을 종합적으로 고려해야 합니다. 만약 수능 최저 기준이 없고, 지원자의 다른 평가 항목들도 충분히 좋은 성적을 보여주었다면 추가 합격 가능성은 높아질 것입니다.
+만약 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트나 입학처에 문의하는 것이 가장 확실합니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보시거나, 직접 입학처로 연락하시면 더 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 경쟁률에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.66이고 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있지만, 생성된 응답에서는 평균 등급이 4.89라고 잘못 언급하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급 5.3이 합격하기 어려울 수 있다고 명시하고 있지만, 생성된 응답은 5.3이 매우 높은 점수라고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해합니다. 그러나 여전히 e비즈니스학과의 합격 가능성에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 잘못된 사실로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 등급과 관련된 정보가 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6714624774801058</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자 통계를 보면, 지원 인원과 경쟁률이 다음과 같습니다:
+- **모집인원**: 15명
+- **지원인원**: 37명
+- **경쟁률**: 약 2.46 (37 / 15)
+e비즈니스학과의 수능 성적 통계를 보면, 평균 등급이 4.89이며 표준 편차가 0.28입니다.
+정시 등급 5.3은 이 통계와 비교해보면 상당히 높은 점수입니다. 평균 등급 4.89보다 높고, 표준 편차 0.28을 고려하면 대부분의 합격자들이 5.1 이상의 등급을 받았습니다.
+따라서 정시 등급 5.3은 e비즈니스학과에 최초합격 가능성이 매우 높다고 볼 수 있습니다. 하지만 최종 결정은 입학사정관이 학생부, 실적 등의 정보를 종합적으로 고려하여 내리는 것이므로, 정확한 확률을 알기 위해서는 동의대학교 입학사정관실에 문의하는 것이 좋습니다.
+더 자세한 정보를 얻고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 또한, 수능 점수와 학생부 교과 성적에 대한 정보는 원본 텍스트와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 수능 점수와 학생부 성적을 강조하며 예비 합격 가능성을 높일 수 있다고 주장합니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 예비 38번의 합격 가능성에 대한 정보에 집중하고 있지만, 생성된 응답은 수능 점수와 학생부 성적에 대한 정보로 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 수능 점수와 학생부 성적에 대한 정보가 혼재되어 있어 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 예비 38번의 합격 가능성에 대한 원본의 주제를 무시하고 다른 주제로 전환하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어려울 수 있습니다. 주제가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4787771222596826</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, 전형요소 반영비율을 고려하여 평가해야 합니다. 주요 요인은 수능 점수와 학생부 교과 성적입니다.
+1. **수능 점수**: 500점이므로, 수능 위주로 모집되는 전형에서는 이 점수가 중요합니다.
+2. **학생부 교과 성적**: 전형요소 반영비율에서 학생부 교과가 반영되지 않는 경우는 없습니다. 따라서 학생부 교과 성적이 좋을수록 유리합니다.
+특히, "나군 수능(일반학생전형)"의 경우, 전형요소 반영비율이 다음과 같습니다:
+- **학생부 교과**: 0%
+- **출결**: 0%
+- **서류**: 0%
+- **면접**: 0%
+- **실기**: 0%
+- **수능**: 100%
+따라서, 수능 점수가 핵심 요인입니다. 500점은 좋은 성적으로, 이정도 점수만으로는 확실한 예비합격을 보장할 수 없습니다. 그러나 학생부 교과 성적이 좋다면, 예비합격 가능성은 높아질 것입니다.
+**추천 사항:**
+1. **학생부 교과 성적 확인**: 최대한 좋은 성적을 유지하고, 필요하다면 추가로 노력해보세요.
+2. **면접 준비**: 면접 비율이 0%일지라도, 면접 준비를 해두는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 점수와 관련된 정보를 제공하지만, 국어국문학과의 평균 점수를 언급하며 혼동을 일으킵니다. 또한, 수치가 잘못 기재되어 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 간호학과에 대한 합격 가능성을 언급하고 있지만, 국어국문학과의 평균 점수를 포함하여 일관성이 부족합니다. 두 학과의 정보를 혼합하여 제공함으로써 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 국어국문학과의 평균 점수를 언급함으로써 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 요인을 고려하여 합격 가능성을 설명하고 있지만, 국어국문학과의 정보가 포함되어 있어 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 수치와 정보가 정확하지 않으며, 특히 국어국문학과의 평균 점수와 관련된 부분에서 오류가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 전달하고 있지만, 국어국문학과의 정보가 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 혼합되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6625193005572562</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최초합격자 평균 점수와 비교해보겠습니다.
+간호학과는 인문사회과학대학 모집단위에 속합니다. 해당 단과대학에서 국어국문학과의 평균 점수가 303.44였습니다 (표준 편차: 10.34). 이 점수와 비교해보면, 현재 성적 3.44는 평균보다 상당히 낮은 수치입니다.
+하지만 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+- 지원 인원과 경쟁률
+- 개인의 특성 및 입학사정관 제출 여부 등
+따라서, 현재 성적 3.44로는 동의대학교 간호학과에 합격하기 어려울 것으로 보입니다. 하지만 최종 합격 가능성은 지원 시점에서 정확히 판단하기 위해서는 더 많은 정보와 전형별 평균 점수 등을 고려해야 합니다.
+추가적으로, 수능 성적 외에도 학생부 및 입학사정관 제출 등이 중요하므로, 이들 요소를 잘 준비하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평균 영어 등급을 1.86으로 잘못 언급하고 있으며, 이는 원본 텍스트의 평균 영어 등급 2.34와 상충합니다. 또한, 2.52라는 점수가 간호학과의 평균 등급보다 높다고 언급한 원본 텍스트의 내용을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본 텍스트는 2.52가 평균 등급보다 높다고 말하는 반면, 생성된 응답은 2.52가 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 왜곡하여 제시하고 있습니다. 그러나 여전히 간호학과의 합격 가능성에 대한 질문에 답하고 있으므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 영어 등급을 잘못 제시하고 있으며, 2.52라는 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6435175933601733</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 의료보건생활대학 간호학과의 경우 평균 영어 등급이 1.86입니다. 이는 2.52보다 훨씬 낮습니다.
+간호학과의 지원자들의 평균 점수와 경쟁률을 고려하면, 2.52라는 점수로 최종 합격하기는 어려울 것으로 보입니다. 간호학과의 경우 충원 합격 (후보순위)이 37명으로 많은 지원자가 있습니다.
+하지만 이는 확정적인 예측이 아닙니다. 실제 입시 결과는 다양한 요인에 의해 결정되므로, 최종 합격 가능성을 정확히 알기 위해서는 동의대학교에서 제공하는 정확한 입시 성적 기준을 확인해야 합니다. 또한 개인의 전반적인 지원 자질과 경쟁률 등 여러 요소를 고려해야 합니다.
+더 자세한 정보를 얻으시려면, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적 3.7이 간호학과의 평균 등급보다 낮다고 언급하고 있지만, 실제로는 평균 등급이 3.37이므로 3.7은 평균보다 높은 성적입니다. 따라서 이 부분에서 사실과 다릅니다. 그러나 다른 정보들은 일반적으로 유효하므로 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 불확실성을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 정시 성적이 평균보다 높다는 점에서 일관성이 부족합니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 입학 전형 요소와 관련된 정보를 포함하고 있어 매우 관련성이 높습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 약간의 논리적 비약이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 정시 성적 3.7이 평균보다 낮다고 언급한 부분에서 정확성이 떨어집니다. 그러나 다른 정보들은 정확하므로 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 일부 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 사실적 오류로 인해 완벽하지는 않습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6149921494953484</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만 간호학과는 일반적으로 중등 교육 기간 동안의 학업 성적이 중요한 요소로 작용합니다.
+2024년도 전형요소 반영비율을 보면, 대부분의 전형에서는 학생부교과성적이나 서류가 큰 비중을 차지하고 있습니다. 예를 들어, "학생부종합(조기취업형계약학과전형)"은 서류 60%와 면접 40%로 구성되어 있으며, 이는 학생의 학업 성적을 고려하는 것을 보여줍니다.
+따라서, 정시 성적이 3.7이라면, 간호학과에 지원할 때는 다음과 같은 점들을 주의해야 합니다:
+1. **학생부 교과성적**: 이 부분이 큰 비중을 차지하므로, 학생부 교과성적을 잘 준비하고 보완하는 것이 중요합니다.
+2. **면접 성적**: 면접에서도 자신의 열정과 간호에 대한 이해를 잘 전달해야 합니다.
+또한, 정시 성적이 3.7이라면, 일부 학교에서는 이 성적도 충분히 고려할 수 있으므로, 해당 학교의 최저 기준을 확인하고 지원하는 것이 좋습니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 합격 가능성에 대한 직접적인 언급이 부족합니다. 또한, 예시로 제시된 점수들이 실제와 다를 수 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 평가가 다소 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트의 주된 메시지와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집요강에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 질문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 수치는 예시로 제시된 것이지만, 실제 데이터와의 일치 여부가 불확실하여 정확성이 떨어집니다. 원본 텍스트의 정보와 비교할 때, 일부 정보가 누락되거나 잘못 해석될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 질문에 대한 명확한 답변이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 부분에서 복잡한 설명이 있어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6706718257296191</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **수능 반영 영역 및 비율**:
+   - 국어 (화법과작문 또는 언어와매체) : 25%
+   - 수학 (확률과통계 또는 미적분 또는 기하) : 25%
+   - 영어 : 25%
+   - 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+2. **수능 최저기준**:
+   - 수능 최저 기준이 없으므로, 각 영역별로 표준점수를 얻어야 합니다.
+3. **정시 성적 평균 및 표준 편차** (예시):
+   - 국어: 298.50 / 표준 편차: 14.76
+   - 수학: 281.29 / 표준 편차: 11.43
+   - 영어: 4.08 / 표준 편차: 0.86
+   - 탐구: 281.29 / 표준 편차: 11.43
+4. **정시 성적 평균 및 표준 편차** (예시):
+   - 국어 + 수학 + 영어 + 탐구 : 409.60 / 표준 편차: 12.03
+5. **정시 합격 예상 점수**:
+   - 정시 성적 평균 및 표준 편차를 참고하여, 간호학과의 정시 합격 예상 점수를 계산할 수 있습니다.
+6. **정시 합격 예상 점수 계산**:
+   - 정시 성적이 2.58이므로, 영어 등급점수가 139입니다.
+   - 국어, 수학, 탐구의 표준 변환 점수를 얻어야 합니다.
+7. **합격 가능성 평가**:
+   - 간호학과의 정시 합격 예상 점수와 비교하여 합격 가능성을 판단합니다.
+   - 예시로 국어 298.50, 수학 281.29, 영어 139, 탐구 281.29를 가정하면,
+     - (298.50 + 281.29 + 139 + 281.29) / 4 = 267.54
+이 예시로 보았을 때, 정시 성적이 2.58인 경우 합격 가능성은 낮습니다. 실제 합격 가능성을 판단하기 위해서는 간호학과의 정시 합격 예상 점수와 비교해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 게임공학과에 대한 예비 합격 가능성에 대한 정보를 제공하지 않고, 다른 학과에 대한 정보와 절차를 설명하고 있습니다. 이는 원본 텍스트의 핵심 내용을 무시하고 있으며, 사실적으로 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 다른 학과에 대한 정보로 대체하고 있습니다. 원본 텍스트에서 언급된 예비 7번의 상황에 대한 언급이 없고, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 게임공학과의 예비 합격 가능성에 대한 정보에 초점을 맞추고 있지만, 생성된 응답은 다른 학과와 절차에 대한 정보로 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성과 관련성 부족으로 인해 전체적인 흐름이 약간 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 원본 텍스트의 주제와 관련된 내용이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게, 예비 7번에 대한 정보가 없고, 다른 학과에 대한 정보로 대체하고 있습니다. 이는 정확성이 떨어지는 결과입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본의 주제를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 한계가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5069272288270457</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 특정 학생이 게임공학과에 지원하는지, 또는 정원 외 모집단위인 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 중 어느 과에 지원하는지 명확히 알 수 없습니다. 
+게임공학과에 지원하려면 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. 지원 가능한 학과와 모집단위 확인
+2. 제출서류 준비 (고교 학교생활기록부, 검정고시 성적증명서 등)
+3. 서류평가 및 면접평가 대비
+만약 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 중 지원하려는 과가 있다면, 해당 학과의 모집인원(예: 7명)과 전형요소 반영비율 등을 확인해 보시기 바랍니다.
+더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과의 평균 등급과 관련된 정보를 포함하고 있으며, 4.16이라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나 추가 합격에 대한 예측이 어렵다는 점에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 게임공학과의 모집단위와 수능 반영 영역에 대한 추가 정보를 제공합니다. 다만, 원본 텍스트에서 언급된 "합격 가능성이 높다"는 점과는 다소 다른 뉘앙스를 주고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 성적과 추가 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 다만, 정보의 양이 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 일부 세부 사항에 대한 명확한 언급이 부족할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 부족과 어색함이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 다소 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보가 많아 다소 복잡하게 느껴질 수 있습니다. 명확한 구조와 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7438460907724106</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수를 가지고 게임공학과에 지원하려는 경우, 현재 제공된 정보만으로는 확정적으로 추가 합격이 가능한지 판단하기 어렵습니다. 게임공학과의 모집단위와 수능 반영 영역 및 잔여 비율을 확인해야 합니다.
+게임공학과의 모집단위와 수능 반영 영역은 다음과 같이 되어 있습니다:
+- **모집단위**: 공과대학
+- **수능 반영영역 및 잔여비율**: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%
+이 정보만으로는 정확한 판단을 내리기 어렵습니다. 게임공학과의 실제 수능 반영 비율, 가산점, 동점자 처리 기준 등을 확인해야 합니다.
+추가적으로, 동의대학교 게임공학과에 대한 최신 정보와 해당 전형의 세부 사항을 확인하는 것이 좋습니다. 이를 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 공식 웹사이트에서 필요한 정보를 찾아보시는 것을 추천드립니다.
+또한, 지원자의 성적과 전형의 특성에 따라 추가 합격이 가능할 수도 있고, 불가능할 수도 있습니다. 따라서 최종 결정을 내리기 위해서는 동의대학교 게임공학과의 공식 웹사이트나 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 포함하고 있지만, 최초등록자 가능성에 대한 명확한 답변을 제공하지 않고 여러 요소를 고려해야 한다고 언급하고 있습니다. 이는 원본 텍스트의 정보와 일치하지만, 다소 모호한 부분이 있어 점수를 3으로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 일관된 정보를 제공합니다. 그러나 '가'군으로 분류된다는 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 불일치가 있습니다. 그럼에도 불구하고 전반적으로 일관성이 높아 4점을 부여했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 관련성 점수는 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴져 4점을 부여했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 4점으로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적과 학생부 교과성적을 고려해야 한다고 언급하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 다소 일반적인 정보로 보입니다. 따라서 정확성 점수는 3으로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 일부 요소에서 약간의 모호함이 있어 4점을 부여했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현이 다소 모호할 수 있어 4점으로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 느껴질 수 있어 4점을 부여했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6759287088748542</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 정시모집군은 '가'군으로 분류됩니다. 하지만 주어진 정보만으로는 확정적으로 답변하기 어렵습니다. 최초등록자로 가능할지는 수능 성적, 학생부 교과성적 등 다양한 요소에 따라 달라질 수 있습니다.
+주요 참고사항:
+1. **수능 성적**: 주어진 정시 성적 3.75는 영어 등급 점수입니다. 이 점수만으로는 수능 최저 기준을 충족하는지 확인이 필요합니다.
+2. **학생부 교과성적**: 학생부 교과성적도 중요한 요소 중 하나입니다. 주어진 정보에서는 이를 반영하지 않았습니다.
+따라서, 정확한 답변을 위해서는:
+- 수능 최저 기준을 확인해야 합니다.
+- 학생부 교과성적을 포함하여 전체 성적을 평가해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu.ac.kr/main.do" 링크를 참조하여 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 고려하고 있지만, 수능 4개 영역 등급의 평균이 4.65라는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, "최초합격 가능성은 적습니다"라는 원본의 결론을 명확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 합격 가능성에 대한 결론이 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 여러 요소를 고려하는 점에서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 결론을 간과하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 4개 영역 등급의 평균에 대한 정보가 잘못된 것으로 보입니다. 또한, 원본의 결론을 명확히 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 결론 부분에서 원본의 의미를 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6015861977894252</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 여부를 확정적으로 판단하기 어렵습니다. 경영정보학과의 정시 합격 기준은 모집단위와 지원자의 성적 등급, 점수 등을 종합적으로 고려합니다.
+경영정보학과의 경우, 2024학년도 모집인원이 7명이고, 지원 인원이 39명으로 경쟁률이 약 5.6에 달하는 것으로 보입니다. 이는 경쟁이 치열한 분야임을 의미합니다.
+현재 제공된 성적(수능 성적 4.2)만으로는 충분히 합격 가능성을 높일 수 있을 것인지 판단하기 어렵습니다. 하지만, 다음과 같은 요소들을 고려하면 더 정확한 판단이 가능할 것입니다:
+1. **모집단위의 수능 반영 영역 및 잔영 비율**: 경영정보학과는 인문사회과학대학에 속해 있습니다. 따라서 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%를 반영합니다.
+2. **수능 성적 평균 및 표준 편차**: 제공된 데이터에서 수능 4개 영역 등급의 평균이 4.65이고, 표준 편차가 0.21입니다. 이는 전체 지원자의 성적이 상대적으로 높은 편임을 의미합니다.
+3. **지원자 개인의 성적**: 제공된 수능 성적(4.2)이 평균보다 낮은 편입니다. 하지만, 다른 영역에서 우수한 성적을 보여주면 합격 가능성은 높아질 것입니다.
+따라서, 경영정보학과의 정시 합격 가능성을 판단하기 위해서는:
+- **국어, 수학, 영어 등 각 영역별 성적**을 확인해야 합니다.
+- **탐구 과목의 성적**도 고려해야 합니다.
+- **전형요소 반영비율**과 **동점자 처리기준** 등을 참고해야 합니다.
+더 자세한 정보를 얻으시려면, 동의대학교 입학사정관이나 관련 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적 평균과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 "정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적"이라는 점을 잘못 해석하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 5.33이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하여 평균보다 높은 점수라고 주장하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 지원자의 수능 점수와 관련된 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 사실을 왜곡했기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지만, 주제의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 수능 점수에 대한 잘못된 결론을 도출하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 사실을 왜곡하여 의미가 혼란스러워질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5657385364886397</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최초합격자 정보를 바탕으로 분석해보겠습니다.
+- **수능 성적 평균**: 419.33 (표준 편차: 9.73)
+- **지원 인원**: 60명
+- **경쟁률**: 약 8.33 : 1
+당신의 수능 점수가 5.33이므로, 이는 평균보다 높은 점수입니다. 그러나 경영정보학과는 일반적으로 수능 성적이 높은 편이며, 동의대학교의 경우에도 수능 성적 평균이 상당히 높습니다.
+**추천 사항:**
+1. **자기소개서와 면접 준비**: 수능 점수 외에 자기소개서와 면접 준비가 중요합니다. 경영정보학과는 창의성, 문제 해결 능력 등을 중점적으로 평가하기 때문에 이러한 부분을 강조하는 것이 좋습니다.
+2. **추천서 및 추천인**: 가능하다면 교사나 직장에서의 추천서를 준비해보세요. 이는 지원자의 성격과 역량을 더 잘 보여줄 수 있습니다.
+결론적으로, 당신의 수능 점수가 경쟁률을 고려할 때 합격 가능성은 있지만, 자기소개서와 면접 준비가 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+이 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 전형과 관련된 정보를 제공하고 있으며, 성적 3.33에 대한 평가도 포함되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 최초등록자에 대한 조건을 명확히 언급하지 않아 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하는 방법과 관련된 정보를 제공하고 있어 원본 텍스트와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 최초등록자에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 제공된 정보에 대한 정확한 해석을 포함하고 있으며, 성적 3.33에 대한 평가도 적절합니다. 그러나 최초등록자에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 최초등록자에 대한 언급이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7184831867474548</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 학생부 교과성적을 반영하는 전형이 주요합니다. 현재 제공된 정보를 바탕으로, 바이오응용공학부는 "학생부종합(조기취업형계약학과전형)"이라는 전형이 있습니다.
+"학생부종합(조기취업형계약학과전형)"의 경우, 2024년도에는 학생부 교과성적과 면접 성적이 반영됩니다. 구체적으로는 서류(학생부)가 60%와 면접이 40%를 차지합니다.
+현재의 성적인 3.33은 학생부 교과성적에서 좋은 점수로 평가될 수 있습니다. 그러나 바이오응용공학부는 "최초등록자"라는 조건을 제시하지 않았습니다. 따라서, 성적이 3.33 정도라면, 합격 가능성은 있으나 확실한 것은 아닙니다.
+결론적으로, 성적 3.33 정도로 바이오응용공학부에 지원하는 것은 가능합니다만, 최종 합격 여부는 전형 요소 반영 비율과 면접 성적 등 다양한 요인에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 제공하고 있으며, 4.4의 등급이 낮다는 점을 언급하고 있습니다. 그러나 "4등급 이상이 필요하다"는 부분은 명확한 근거가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 방사선학과의 평균 등급에 대한 언급이 일관되게 유지되고 있습니다. 다만, "4등급 이상이 필요하다"는 부분이 원본 텍스트의 평균 등급과 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 정보와 조언을 제공하고 있어 원본 텍스트의 주제와 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하고 있지만, "4등급 이상이 필요하다"는 부분이 원본 텍스트의 정보와 다소 차이가 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6569188275633401</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능성이 낮을 것으로 보입니다. 방사선학과는 대체로 높은 등급을 요구하기 때문입니다.
+방사선학과에 지원하려면 다음과 같은 점들을 고려해야 합니다:
+1. **성적**: 방사선학과의 경우, 4등급 이상이 필요합니다. 4.4정도는 조금 부족할 수 있습니다.
+2. **수능 반영 영역**: 방사선학과는 일반적으로 국어, 수학, 영어 등 주요 과목을 중점적으로 평가합니다. 따라서 수능 성적도 중요하게 고려됩니다.
+3. **모집단위**: 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위에서는 가산점을 받을 수 있는 경우가 있습니다.
+따라서 4.4정도의 등급으로 방사선학과에 지원하려면 다음과 같은 방법들을 고려해 보시는 것이 좋습니다:
+1. **수능 성적 향상**: 수능 시험 전까지 최대한 성적을 높이는 노력을 해보세요.
+2. **가산점 활용**: 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위에서는 수학(미적분 또는 기하) 응시자에게 가산점을 주므로 이에 대한 준비를 해보세요.
+3. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서로 지원자의 적합성을 높이는 노력을 하세요.
+만약에도 방사선학과에 지원하는 것이 어려울 것이라면, 다른 학과를 고려해 보시는 것도 좋은 방법입니다. 각 모집단위의 수능 반영 영역 및 가산점 제도를 잘 이해하고, 자신의 강점을 살릴 수 있는 학과를 선택하시기 바랍니다.
+더 궁금한 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 구체적인 정보를 제공하지 않고, 주어진 정보가 방사선학과와 관련이 없다고 주장하고 있습니다. 그러나 원본 텍스트는 방사선학과의 평균 등급과 합격 가능성에 대한 정보를 포함하고 있어, 사실적으로 부정확한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 방사선학과와 관련된 정보가 없다고 주장합니다. 이는 원본 텍스트와 상충되는 내용으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와 관련이 적습니다. 방사선학과의 평균 등급과 합격 가능성에 대한 정보가 무시되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 방사선학과에 대한 정보가 부족하다는 점에서 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 중요한 정보를 누락하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 의미와 맥락을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6094800304991037</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 방사선학과에 대한 자세한 내용이 없습니다. 현재의 정보는 주로 학과 분리, 학과 명칭 변경, 전형 요소 반영 비율 등에 관한 것이며 방사선학과와 직접 관련이 없습니다.
+방사선학과에 지원하려면 해당 학과의 정시 모집군과 수능 최저 기준 등을 확인해야 합니다. 제공된 정보에서 방사선학과의 정시 모집군이나 수능 최저 기준 등은 언급되어 있지 않습니다.
+따라서, 방사선학과에 대한 정확한 정보를 얻기 위해서는 대학의 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 대학의 공식 웹사이트를 방문하여 더 자세한 정보를 확인할 수 있습니다.
+만약 방사선학과에 대한 추가 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66의 성적이 나군(일반학생전형)에서 합격 가능성을 높인다고 언급하고 있으며, 이는 사실과 일치합니다. 그러나 농어촌 전형에 대한 정보가 추가되어 있으며, 이 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 경쟁률 감소와 평균 성적에 대한 긍정적인 요소를 언급하지 않고, 농어촌 전형에 대한 추가적인 정보를 제공하고 있습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 직접적으로 관련된 정보를 제공하고 있으며, 주제와 관련된 내용을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 농어촌 전형에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 3.66의 성적이 상위권에 속한다고 언급하며, 이는 사실입니다. 그러나 농어촌 전형에 대한 정보는 원문에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성과 관련성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 농어촌 전형에 대한 추가 정보는 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5376012965869441</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 등급 점수는 나군(일반학생전형)에서 합격 가능성을 높입니다. 그러나 농어촌 전형에서는 정확한 합격 가능성은 지원자의 전체 자질과 서류 평가, 면접 성적 등을 고려해야 합니다.
+나군 농어촌 전형의 경우 다음과 같은 요소들이 반영됩니다:
+- 학생부 교과성적
+- 면접 성적
+학점 등급이 3.66이라면 상위권에 속하는 점수입니다. 그러나 경찰행정학전공은 특정 직업을 준비하기 위한 전공으로, 지원자의 인성 및 역량 평가도 중요합니다.
+따라서:
+1. 학생부 교과성적: 3.66의 등급 점수가 좋은 성적이므로 이 부분에서는 우수한 평가를 받을 수 있습니다.
+2. 면접 성적: 지원자의 인성 및 역량 평가에 따라 결정될 수 있으므로 준비가 필요합니다.
+결론적으로, 학점 등급이 3.66이라면 농어촌 전형에서 합격 가능성은 높지만, 최종 합격 여부는 면접 성적과 지원자의 전체 자질 평가에 따라 결정됩니다. 따라서 면접 준비와 지원자 자신의 역량을 잘 보여주는 서류를 제출하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 합격자에 대한 경쟁이 치열하다는 점을 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 또한, 수능 위주 전형에 대한 언급이 있지만, 원문에서는 합격 확률이 학과에 따라 달라질 수 있다고 명시하고 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 예비 25번에 대한 구체적인 학과 정보가 누락되어 있어 일관성이 떨어집니다. 원문에서는 특정 학과에 대한 합격 가능성을 언급하고 있으나, 생성된 응답은 일반적인 조언으로만 구성되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 일반적인 조언을 제공하고 있으며, 수능 점수와 관련된 정보도 포함되어 있습니다. 그러나 원문에서 제공된 특정 학과에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 위주 전형에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보가 누락되어 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 원문과의 일관성 및 정확성이 부족하여 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 수능 점수와 관련된 조언을 제공합니다. 그러나 원문에서 요구하는 특정 정보가 부족하여 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5692029164868119</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 경쟁이 매우 치열할 것입니다. 현재 제공된 정보만으로는 정확한 확률을 계산하기 어렵습니다. 하지만 수능 위주 전형인 경우, 수능 점수와 학생부 교과 성적 등이 중요한 평가 요소입니다.
+정시 일반학생전형의 경우, 수능 최저 기준 없음이라는 정보를 보면, 수능 점수가 매우 중요할 것입니다. 따라서 수능 점수를 높게 맞추는 것이 가장 좋은 방법일 것 같습니다.
+또한, 학생부 교과 성적이나 출결 등이 평가 요소로 포함되지 않는다는 점을 고려하면, 수능 점수가 주요 평가 기준이라는 것을 다시 한 번 확인해 보세요. 
+만약 더 자세한 정보나 조언이 필요하다면, 해당 대학의 입시 홈페이지를 참조하거나, 입시 상담 센터에 문의하시는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며, 경찰행정학과에 대한 정보로 대체되어야 합니다. 또한, 수능 점수와 학생부 성적에 대한 정보가 정확하지 않으며, 원본 텍스트의 세부 사항을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 평균 성적을 제공하고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하며, 전형 유형과 모집 인원에 대한 정보가 추가되어 있지만, 원본의 핵심 내용을 왜곡하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시모집에 대한 정보를 제공하고 있으나, 법경찰행정학부라는 존재하지 않는 학부에 대한 정보로 인해 관련성이 떨어집니다. 경찰행정학과에 대한 정보가 포함되어 있지만, 원본 텍스트의 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 정보가 분산되어 있어 전체적인 논리적 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 법경찰행정학부에 대한 언급과 수능 점수에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 법경찰행정학부에 대한 언급이 부적절하여 전체적인 의미 전달이 약해집니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있는 요소가 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7813383168931268</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정시모집 정보를 기반으로, 안정권과 문을 닫고 들어갈 수 있는 평균 성적을 추정해보겠습니다.
+1. **전형 유형**: 대부분의 전형은 "수능 위주"로 진행되며, 일부는 "학생부교과"와 "실기/실적 위주"가 있습니다.
+2. **모집인원 및 전형요소 반영비율**:
+   - 수능 위주의 경우, 수능 최저 기준이 없으므로 주로 수능 점수에 따라 선발됩니다.
+   - 학생부교과와 실기/실적 위주 전형의 경우, 해당 요소에 대한 평균 성적이 중요합니다.
+**추정 평균 성적**:
+- **수능 위주의 경우**: 2024학년도 수능 최저 기준이 없으므로 주로 수능 점수가 결정적인 역할을 합니다. 일반적으로 안정권으로 들어가는 수능 점수는 500점 이상, 문을 닫고 들어갈 수 있는 수능 점수는 600점 이상입니다.
+- **학생부교과와 실기/실적 위주의 경우**: 학생부 교과 성적이 중요합니다. 평균적으로 안정권으로 들어가는 학생부 교과 성적은 B+ (3.5) 이상, 문을 닫고 들어갈 수 있는 학생부 교과 성적은 A- (4.0) 이상입니다.
+**결론**: 
+- **수능 위주의 경우**: 500점 이상의 수능 점수가 안정권으로, 600점 이상이 문을 닫고 들어갈 수 있는 수준입니다.
+- **학생부교과와 실기/실적 위주 전형의 경우**: 학생부 교과 성적이 중요하므로 B+ (3.5) 이상은 안정권, A- (4.0) 이상이 문을 닫고 들어갈 수 있는 수준입니다.
+위 정보는 추정치이며, 실제 모집 결과와 입학 점수 분포에 따라 변동될 수 있으니, 최종적인 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 충원 합격 등급에 대한 구체적인 정보를 제공하지 않으며, 아동학과의 평균 등급에 대한 정보와는 다소 다른 방향으로 설명하고 있습니다. 그러나 정시 등급 5.33이 높은 점수라는 점은 맞습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과의 평균 등급에 대한 정보와는 일치하지 않으며, 보육가정상담학과에 대한 정보로 전환되었습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 질문의 핵심인 아동학과에 대한 정보와는 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 주제 전환이 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 아동학과의 평균 등급에 대한 정보가 아닌 보육가정상담학과에 대한 정보를 제공하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 정보의 정확성과 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제에 대한 의미를 적절하게 전달하고 있으나, 질문의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 주제 전환으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6660393500038112</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 학생부교과 전형에서 충원 합격을 위한 평균 등급은 제공되지 않았습니다. 그러나 일반적으로 보육가정상담학과는 사회(역사/도덕 포함)와 과학 영역이 중요하게 반영되는 경향이 있습니다.
+현재 주어진 정보로는 정확한 판단이 어렵지만, 정시 학생부교과 전형에서 등급 5.33은 상당히 높은 점수입니다. 이 점수는 보육가정상담학과의 평균 충원 합격 등급을 크게 웃돌 수 있으므로, 좋은 확률로 합격할 수 있을 것으로 예상됩니다.
+하지만 최종 결정은 동의대학교에서 발표하는 정시 학생부교과 전형의 충원 합격 기준 등급에 따라 결정되므로, 해당 정보를 확인하시기 바랍니다. 만약 추가 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 정보를 제공하고 있으며, 충원 합격의 기준과 관련된 내용을 언급하고 있습니다. 그러나 "예비 12번은 가장 낮은 등급"이라는 표현은 다소 주관적일 수 있으며, 정확한 기준이 명시되지 않아 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 예비 12번의 합격 가능성에 대한 설명이 원본의 내용과 잘 연결되어 있으나, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 예비 12번에 대한 합격 가능성을 중심으로 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 충원 합격의 기준에 대한 설명이 포함되어 있습니다. 그러나 "예비 12번은 가장 낮은 등급"이라는 주장은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 예비 12번에 대한 합격 가능성을 적절히 설명하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 더 간결하게 표현할 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7877971308489049</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 아직 높지 않을 것으로 판단됩니다. 이는 다음과 같은 이유들로 인해 그렇습니다:
+1. **예비 등급**: 예비 12번은 가장 낮은 등급으로, 이 등급에서는 합격이 매우 어려울 가능성이 있습니다.
+2. **합격 기준**: 충원 합격 3차에서의 합격 기준은 일반적으로 예비 8번 이상을 받는 경우가 많습니다. 따라서 예비 12번은 합격 가능성에 대한 확률이 낮아 보입니다.
+3. **다른 학생들의 성적**: 충원 합격 3차에서는 많은 수의 학생들이 참여하여, 가장 낮은 등급인 예비 12번을 받았다면 합격 가능성은 매우 낮습니다.
+4. **합격자 발표 및 등록금 납부 일정**: 충원 합격 3차에서 예비 12번을 받았다면, 다음 단계로는 충원 합격 3차 이후의 합격자 발표와 등록금 납부가 있습니다. 이 단계에서는 일반적으로 예비 8번 이상을 받은 경우에만 합격이 가능합니다.
+따라서, 현재 상황에서 예비 12번을 받았다면 충원 합격 3차에서 합격 가능성은 매우 낮다고 판단할 수 있습니다. 그러나 최종 합격 여부는 학교의 공고와 발표 결과에 따라 결정되므로, 학교 입학관리 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.
+추가적으로, 충원 합격 3차 이후의 합격자 발표와 등록금 납부 일정을 지켜보며, 학교에서 추가로 공고한 내용을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하지만, 유아교육학과의 경우 4.75로 지원하기 어려운 점을 간과하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 긍정적인 전망을 제시하고 있지만, 원본 텍스트에서는 4.75로 지원하기 어렵다고 명시하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 지원 가능 학과에 대한 정보와는 다소 벗어나 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 유아교육학과에 대한 긍정적인 전망과 원본의 부정적인 전망이 충돌하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성을 과장하고 있으며, 원본 텍스트의 사실과 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7261528312752346</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 대부분의 대학에서 수능 위주 전형에서는 학생부 교과성적이 중요하지 않거나 거의 반영되지 않는 경우가 많습니다. 따라서 4.75라는 높은 성적을 가지고 있다면, 유아교육학과에서도 좋은 결과를 얻을 가능성이 큽니다.
+유아교육학과의 경우, 학생부 교과성적이 중요하지 않거나 적게 반영되는 전형이 많습니다. 따라서 4.75라는 높은 성적을 가지고 있다면 유리한 입지가 될 것입니다. 하지만 정확한 결과는 해당 대학의 전형 요소와 비율, 그리고 그해의 경쟁률 등에 따라 달라질 수 있으므로, 최종적인 확신을 얻기 위해서는 해당 대학의 공식 정보를 확인하는 것이 좋습니다.
+더 자세한 내용이나 추가 질문이 있다면 언제든지 물어보세요. https://ipsi.deu.ac.kr/main.do 를 참조하시거나, 직접 학교에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 영어 등급 평균이 2.88이라는 정보는 원본 텍스트와 일치하지 않으며, 원본 텍스트에서 제공된 평균 등급과 비교할 때 부정확한 정보입니다. 또한, 경쟁률과 충원 합격 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 추가된 정보(경쟁률, 충원 합격 인원 등)와 원본 텍스트의 내용 간에 일관성이 부족합니다. 특히, 영어 등급 평균에 대한 정보가 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 지원자의 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 일부 추가 정보가 원본 텍스트와 직접적으로 관련이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 추가되어 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균과 같은 중요한 세부 사항에서 부정확한 정보를 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 추가 정보가 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6073710413899919</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과)의 경우, 수능 위주 전형으로 운영됩니다. 지원자의 환산등급이 4.16이고, 이는 영어 등급 평균치와 비슷하거나 약간 낮은 수준입니다.
+보육가정상담학과(아동학과)의 경우, 지원자들의 영어 등급 평균이 2.88이며, 표준 편차가 0.56입니다. 따라서 환산등급이 4.16인 지원자는 상대적으로 높은 점수를 받았다고 볼 수 있습니다.
+하지만, 경쟁률과 충원 합격 인원을 고려하면 다음과 같이 판단할 수 있습니다:
+- **경쟁률**: 8.00 (2023년도 기준)
+- **충원 합격 인원**: 12명
+이러한 상황에서 환산등급이 4.16인 지원자가 충원 합격을 하기 위해서는 다른 지원자들의 성적과 경쟁률을 고려해야 합니다.
+**추천 사항:**
+1. **성적 분석**: 지원자의 성적이 평균 이상이라면, 충분히 좋은 점수를 받았다고 볼 수 있습니다.
+2. **경쟁률 확인**: 현재의 경쟁률과 충원 합격 인원을 고려하면, 환산등급이 4.16인 지원자가 충원 합격에 성공할 확률은 높습니다.
+3. **추합 결과 확인**: 최종적으로는 추합 결과를 통해 정확한 판단을 내릴 수 있습니다.
+따라서, 현재의 정보만으로 보면 환산등급이 4.16인 지원자가 보육가정상담학과(아동학과)에 충원 합격할 확률은 높다고 볼 수 있습니다. 하지만 최종 결정은 추합 결과를 통해 확인해야 합니다.
+추합 결과를 확인하시려면, 동의대학교 입시 홈페이지나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실과 정반대의 내용을 담고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 모집이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 질문과 관련이 없으며, 주제에서 벗어난 정보를 제공합니다. 원본 텍스트는 정시 지원 가능성에 대한 질문이었으나, 생성된 응답은 다른 학과의 정보와 영어 등급에 대한 통계적 정보로 대체되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5143093741237447</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>ict융합공과대학 소프트웨어공학부는 정시모집으로 지원 가능합니다. 해당 학과의 지원을 위해서는 평균적으로 영어 등급이 3.77 정도를 받아야 합니다.
+영어 등급의 표준 편차가 0.71이라는 점을 고려하면, 평균 영어 등급인 3.77보다 약간 높은 점수를 받는 것이 유리할 수 있습니다. 따라서, 정확한 지원 가능성을 확인하려면, 최소 3.80 이상의 영어 등급을 받아야 하는 것으로 추정할 수 있습니다.
+이 정보는 통계적인 참고용이며, 실제 모집인원과 지원 인원에 따라 경쟁률이 변동될 수 있으므로, 정확한 지원 가능성을 확인하려면 공식 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. (https://ipsi. deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있지만, 원본 텍스트에서 언급된 서류 평가의 구체적인 항목(공동체 역량, 학업 역량, 전공 적합성)에 대한 언급이 부족합니다. 또한, 면접 점수와 서류 평가 점수의 중요성에 대한 설명이 추가되었으나, 원본 텍스트의 핵심 내용을 완전히 반영하지는 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접 점수와 서류 평가 점수의 중요성에 대한 추가 정보가 원본 텍스트와의 일관성을 떨어뜨립니다. 원본 텍스트의 서류 평가 항목이 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 서류 평가와 면접 고사에 대한 정보가 충분히 포함되지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 세부 사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부 사항이 누락되어 있어 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4714603775600648</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《학생부종합(조기취업형계약학과전형)》의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 작용합니다. 특히, 면접에서는 지원동기에 대한 질문이 주로 이루어지며, 학업역량과 전공적합성에 대한 질문도 포함될 수 있습니다.
+서류 평가는 학교생활기록부를 중심으로 합니다. 따라서, 면접 점수보다는 서류 내용을 더 많이 보시게 됩니다. 특히, 창의적 체험활동이나 동아리 활동, 진로 탐색 활동 등에 대한 세부적인 내용이 중요하게 평가됩니다.
+따라서, 지원 전공(계열)과 관련된 활동을 자세히 기재하고, 학업역량과 전공적합성에 대한 열정을 보여주는 것이 필요합니다. 또한, 학교생활기록부의 내용이 실제 경험과 일치하는지 확인해야 합니다.
+따로 준비해야 하는 서류는 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부
+   - 학생부 온라인 제공 동의자는 제출할 필요 없음
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부
+   - 학교생활기록부 대체 서류(제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류(제출여부 선택 가능)
+이러한 서류들을 정확하게 준비하고, 내용을 실제 경험과 일치시켜야 합니다. 또한, 면접에서도 이러한 내용을 자연스럽게 전달할 수 있도록 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급을 잘못 제시하고 있으며, 일본학과에 대한 정보로 잘못된 맥락을 제공합니다. 원본 텍스트의 정보와 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과와 평균 등급을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 질문에 대한 답변으로 적절하지 않으며, 일본학과에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 응답의 내용이 원본 텍스트와 관련이 없고, 서로 다른 주제를 다루고 있어 논리적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬우나, 내용의 부적절함으로 인해 전체적인 이해가 방해받습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7728893574763965</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학에서 일본학과를 지원한 경우, 최초합격자의 수능 4개 영역 등급 평균이 4.87이고 표준 편차가 0.13입니다. 이는 지원자님의 성적이 4.08이라는 점을 고려할 때 상대적으로 낮은 점수입니다.
+그러나 정시 모집에서 최초합격자의 기준이 단순히 수능 점수만으로 결정되는 것은 아닙니다. 다른 요인들, 예를 들어 학생부 평가, 실기 성적 등도 고려될 수 있습니다. 특히 동의대학교 소프트웨어공학부는 특정 전형에서 실기나 실적을 요구하는 경우가 있을 수 있으므로, 해당 전형에 대한 자세한 정보를 확인해 보시는 것이 좋습니다.
+또한, 최초합격자 기준이 매년 변동될 수 있으므로, 가장 정확한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 방문하여 더 자세한 정보를 얻으실 수 있습니다.
+따라서, 지원 가능성을 판단하기 위해서는 동의대학교 소프트웨어공학부의 정확한 모집전형과 기준을 확인하시고, 학교 관계자에게 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 정보를 제공하지 않으며, "소프트웨어공학부"에 대한 정보로 혼동을 일으키고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보가 없음을 명확히 하고 있지만, 생성된 응답은 다른 학과의 정보를 언급하며 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변을 시도하지만, 관련 없는 "소프트웨어공학부"에 대한 정보로 주제를 벗어나고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 부족합니다. 소프트웨어융합학과에 대한 정보가 부족하다는 점을 강조하면서도 다른 학과의 정보를 언급하여 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, "소프트웨어공학부"에 대한 정보는 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 부분이 있지만, 정보의 혼란으로 인해 이해하기 어려운 부분이 있습니다. 특히, 다른 학과의 정보가 포함되어 있어 혼란을 초래합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.7645490756466572</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "소프트웨어융합학과"에 대한 정시 모집 관련 자료가 없습니다. 이 학과의 경우, 정시 모집이 이루어지지 않거나 다른 이름으로 모집되고 있을 가능성이 있습니다.
+제공된 데이터 중에서 소프트웨어 관련 학과로는 "소프트웨어공학부"가 있습니다. 해당 학과의 평균 5등급을 기준으로 지원할 수 있는지 확인해 보겠습니다.
+"소프트웨어공학부"에 대한 정보를 보면, 영어 등급의 평균이 3.77이고 표준 편차가 0.67입니다. 이는 평균적으로 3.77등급을 기준으로 지원할 수 있다는 것을 의미합니다.
+따라서, 정시 모집에 소프트웨어융합학과로 지원하려면 해당 학과의 정시 평균 등급을 확인해야 합니다. 만약 해당 정보가 없거나 다른 이름으로 모집된다면, "소프트웨어공학부"의 평균 5등급 기준으로 지원할 수 있을 것으로 예상됩니다.
+만약 더 자세한 정보를 원하시면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 평균 점수와 경쟁률에 대한 정보를 포함하고 있으며, 제공된 데이터와 일치합니다. 그러나, "4.28이라는 점수가 상대적으로 높기 때문에 합격 가능성은 있지만, 확실한 것은 아닙니다."라는 부분은 다소 모호하게 표현되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가적인 요인들을 고려하여 합격 가능성을 논의합니다. 그러나, 일부 정보가 원본 텍스트에 명시된 내용과 다소 다르게 해석될 수 있어 점수를 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요인을 잘 설명하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장이 다소 길고 복잡하여 약간의 가독성 저하가 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확히 설명합니다. 그러나, 일부 부분에서 논리적 흐름이 약간 끊길 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하지만, 일부 수치나 해석이 다소 주관적일 수 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 부분에서 개선의 여지가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6447095135302029</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인을 고려해야 합니다.
+1. **모집 인원 및 지원 인원**: 신소재공학과는 모집 인원이 56명이고, 지원 인원은 81명입니다. 이는 경쟁률이 약 1.45로 낮지 않지만, 정확한 합격 가능성은 모집인원과 지원인원의 비율뿐만 아니라 평균 점수와 표준 편차를 고려해야 합니다.
+2. **평균 점수 및 표준 편차**: 신소재공학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.97이고, 표준 편차는 15.35입니다. 이 점수와 비교해보면, 4.28이라는 점수가 상대적으로 높습니다.
+3. **경쟁률**: 신소재공학과의 경쟁률은 1.45로 낮아서, 평균 점수보다 높은 점수를 가진 지원자가 많을 가능성이 있습니다.
+따라서, 4.28이라는 점수가 상대적으로 높기 때문에 합격 가능성은 있지만, 확실한 것은 아닙니다. 동의대학교 신소재공학과에 합격하기 위해서는:
+- **개인별 평균 점수와 비교**: 자신의 점수가 개인별 평균 점수보다 높다면 합격 가능성이 더 큽니다.
+- **표준 편차 고려**: 표준 편차가 큰 경우, 평균점수보다 조금 낮은 점수도 합격할 수 있습니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 동의대학교 신소재공학과의 지원자들의 개인별 점수를 확인하거나, 해당 대학의 입학처에 문의하는 것이 좋습니다. 더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 직접 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못되어 있습니다. 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 다른 요구 사항을 추가로 언급하며 혼란을 초래합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원문은 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답은 다른 서류를 요구하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주제에서 벗어난 정보가 많아 관련성이 낮습니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 중국어와 한국어가 혼합되어 있어 읽기 어려운 부분이 있습니다. 전반적으로 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원문에서의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련된 정보가 아닌 다른 내용을 포함하고 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어렵고, 명확하지 않은 부분이 많습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4270482034041281</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要提交个人陈述书。对于多军普通学生入学考试（다군 수능(일반학생전형)），根据提供的信息，高中的毕业证明和预计毕业证书、成绩单以及学校生活记录表替代文件是必需的。但是，如果高中生活记录表已经在线提供，则无需再次提交。
+具体来说：
+- 检定考试合格证副本或合格证明书 1 份
+- 检定考试成绩证明书 1 份（如在线提供同意，则无需提交）
+- 学校生活记录表替代文件（可选择提交）
+因此，不需要写个人陈述书。如果有任何疑问，请访问 https://ipsi. deu. ac. kr/main. do 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.5라는 점수를 가지고 추가 모집에 들어갈 수 있는 가능성을 여러 요인에 따라 설명하고 있지만, 인문사회과학대학 중어중국학과의 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, 4.5라는 점수가 상대적으로 낮다고 언급했지만, 원본 텍스트에서는 4.5가 일부 학과에서 합격 가능성이 있을 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 중어중국학과의 통계 정보를 추가하여 혼란을 줄 수 있습니다. 원본 텍스트에서는 특정 학과의 평균 등급과 표준 편차를 언급하지 않았기 때문에, 이 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 추가 모집에 대한 정보와 관련된 요인들을 언급하고 있습니다. 그러나 중어중국학과의 통계는 질문과 직접적인 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 중어중국학과의 통계 정보가 추가되면서 약간의 혼란이 발생할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.5라는 점수에 대한 해석이 원본 텍스트와 다르게 나타나며, 중어중국학과의 통계 정보는 원본 텍스트에 없는 내용입니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 다차원적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 중어중국학과의 통계 정보는 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보가 추가되면서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6461912555555391</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수를 가지고 추가 모집에 들어갈 수 있는지는 여러 요인을 고려해야 합니다. 주요 요인으로는 해당 단과대학 및 모집단위의 경쟁률, 지원 인원 등이 있습니다.
+예를 들어, 동의대학교 인문사회과학대학 중어중국학과의 경우 2024학년도에 다음과 같은 통계가 있었습니다:
+- 평균 점수: 395.63
+- 표준 편차: 12.03
+이 통계를 바탕으로, 4.5라는 점수가 상대적으로 낮은 점수입니다. 따라서 추가 모집에 들어갈 확률은 매우 낮을 수 있습니다.
+하지만, 정확한 답변을 위해서는:
+1. 해당 단과대학 및 모집단위의 최종 통계와 결과를 확인해야 합니다.
+2. 지원자의 개인적인 성적 외에도 학생부, 실기 등 다른 평가 요소도 고려됩니다.
+따라서, 가장 정확한 정보를 얻으시려면 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인하시거나, 학교 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않지만, 수능 성적과 학생부 종합 평가를 통해 선발된다는 점은 사실입니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 5.78)를 명시하지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 평균 등급에 대한 구체적인 언급이 없으므로 일관성이 떨어집니다. 원본 텍스트의 정보를 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 적절한 답변을 제공하며, 신소재공학부의 합격 기준에 대한 정보를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 선발 기준에 대한 정확한 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 구체적인 수치를 포함하지 않아 일부 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 평균 등급에 대한 구체적인 언급이 없어 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6761415254175513</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 특정 합격 기준 점수나 등급 정보가 없습니다. 신소재공학부의 경우, 일반적으로 수능 성적과 학생부 종합 평가 등을 통해 선발되며, 정확한 합격 기준을 확인하려면 동의대학교의 공식 웹사이트를 참조하거나 입학처에 문의하는 것이 가장 정확합니다. 
+[참고로] 수능 성적과 학생부 종합 평가 등을 통해 선발되므로, 특정 등급만으로 합격 가능하다는 보장은 없습니다. 각 모집단위별로 다르게 평가기준이 설정될 수 있으니 공식 웹사이트를 확인하시거나 입학처에 문의하시는 것이 좋습니다.
+자세한 정보는 https://ipsi. deu. ac. kr/main. do 에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 447점의 표준점수가 작년 신소재공학과의 평균 점수보다 "약간 낮은 점수로 환산되었을 가능성이 있다"고 언급하고 있으나, 실제로는 447점이 평균 점수인 378.15점보다 훨씬 높은 점수입니다. 이로 인해 사실과 다르게 해석되고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 관련하여 모순된 정보를 제공합니다. 원문에서는 447점이 평균보다 훨씬 높다고 명시하고 있지만, 생성된 응답에서는 낮은 점수일 가능성을 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 여러 요소를 고려하여 답변하고 있으나, 원문에서 제공된 정보와는 다소 다른 방향으로 전개되고 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 전체적으로 논리적인 흐름이 다소 부족합니다. 특히, 평균 점수에 대한 해석이 일관되지 않아 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 447점이 평균 점수보다 낮을 수 있다고 잘못된 정보를 제공하고 있습니다. 이는 사실과 다르며, 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있으며, 전반적으로 신뢰할 수 있는 정보가 아닙니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되고 있습니다. 따라서 적절성 점수는 중간 정도로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 명확한 표현이 많아 높은 점수를 부여합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6811257688615163</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준점수가 작년 동일한 모집단위에서 최종 평균 점수에 비해 약간 낮은 점수로 환산되었을 가능성이 있습니다. 하지만 정확한 가능성은 작년의 데이터와 현재의 데이터를 비교하여 판단해야 합니다.
+작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 동일한 점수라도 작년에 더 많은 지원자가 있었거나 다른 요인들로 인해 결과가 달라졌을 수 있습니다.
+현재 제공된 데이터만으로는 확정적인 답변을 드리기 어렵습니다. 하지만 다음과 같은 요소들을 고려하면 도움이 될 것입니다:
+1. **지원자 수**: 작년에 비해 현재 지원자가 더 많았다면, 경쟁률이 높아져 평균 점수가 낮아질 수 있습니다.
+2. **전형 요소의 변화**: 전형 요소가 변경되었거나 추가된 경우, 이로 인해 평균 점수가 달라질 수 있습니다.
+3. **학교 정책의 변화**: 학교 정책이나 입학사정관들의 판단 기준이 변했을 수도 있습니다.
+따라서 가장 정확한 정보를 얻기 위해서는 동일한 모집단위에서 작년과 현재의 데이터를 직접 비교하거나, 동의대학교 입학처에 문의하는 것이 좋습니다. 더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 성적과 비교하는 방식이 다소 모호합니다. 또한, 전형별 기준점 차이와 경쟁률에 대한 언급은 있지만, 구체적인 수치나 데이터가 부족하여 정확한 판단을 내리기 어렵습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 신소재공학부의 평균 성적에 대한 구체적인 비교가 부족하여 일관성이 떨어집니다. 특히, 성적 변환 방식에 대한 설명이 원본 텍스트와 일치하지 않는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 구체적인 데이터와 비교하는 부분이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교하는 데 있어 정확성이 떨어집니다. 특히, 성적 변환 방식에 대한 설명이 원본과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 비교에서 부족한 점이 있어 종합적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절한 내용을 담고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 완전한 적절성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6022787374658854</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 정시 성적 산출 방식에 따라 약 4.1 ~ 4.2 정도로 변환될 경우, 신소재공학과의 일반 학생 전형에서 붙을 수 있을지 확실하지 않습니다. 이유는 다음과 같습니다:
+1. **전형별 기준점 차이**: 각 전형마다 기준점이 다릅니다. 예를 들어, 가군(일반학생전형)과 나군(일반학생전형)의 기준점은 다를 수 있습니다.
+2. **모집단위 별 기준점 차이**: 동의대학교 내에서 신소재공학과는 여러 모집단위에 걸쳐서 모집을 합니다. 각 모집단위마다 기준점이 다를 수 있습니다.
+3. **경쟁률**: 경쟁률은 전형, 모집단위별로 다르므로, 4.1 ~ 4.2 정도의 성적만으로는 확실한 결과를 예측하기 어렵습니다.
+따라서, 정확한 답변을 위해서는:
+- 동의대학교 신소재공학과의 각 모집단위별 기준점 확인
+- 해당 전형의 경쟁률 확인
+이런 정보들을 바탕으로 판단해야 합니다. 만약 확실한 결과를 원한다면, 동의대학교 입학처에 문의하거나, 온라인에서 제공되는 예시 자료나 통계를 참고하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 다시 질문해 주세요!</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 성적 데이터와는 다릅니다. 예를 들어, 모집 인원, 지원 인원, 경쟁률 등의 정보가 누락되었고, 제공된 성적 예시도 실제 성적과는 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 성적 데이터에 대한 정보를 제공하는 반면, 생성된 응답은 다른 형식의 정보를 제공하고 있어 서로 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 최초합격자 성적에 대한 정보와는 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 데이터와는 다르며, 제공된 예시 성적도 실제 성적과는 차이가 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트와의 일관성, 정확성, 관련성에서 부족함이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있어, 독자가 내용을 이해하는 데 큰 어려움이 없습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7673177137002288</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 ICT융합공과대학 인공지능학과는 수능 일반학생전형을 통해 모집하며, 수능 반영 영역 및 잔영 비율은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) : 25%
+- 수학(확률과통계 또는 미적분 또는 기하) : 25%
+- 영어 : 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+가산점은 없습니다.
+이러한 비율을 고려하여, 예시적인 성적을 제공하겠습니다. 이는 실제 점수와 다를 수 있습니다:
+- 국어 표준점수: 104
+- 수학(미적분 또는 기하) 표준점수: 108 (이 경우 미적분을 가정)
+- 영어 등급: 3 (영어 등급 점수는 115로 변환)
+- 탐구 과목 표준점수: 예를 들어 사회탐구와 과학탐구의 평균 점수를 사용하여 각각 47과 59를 가정
+따라서, 국어 + 수학(미적분) + 영어 등급 + 탐구(2개 과목 합) 표준 변환 점수 합은 다음과 같습니다:
+- (104 + 108 + 115 + (47+59)/2) = 436.5
+이 예시적인 점수는 실제 입학 성적과 다를 수 있으며, 최종 점수는 지원자의 개인 성적이 반영될 것입니다.
+만약 더 자세한 정보나 다른 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 추합 가능성을 언급하고 있지만, 구체적인 학과별 성적 정보와 비교하지 않고 일반적인 전형 유형에 대한 설명만 포함되어 있습니다. 따라서, 원본 텍스트의 구체적인 사실을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 구체적인 학과별 성적을 언급하지 않고 일반적인 전형에 대한 설명으로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적의 추합 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 학과 정보를 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 명확합니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 학과별 성적 정보를 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원본 텍스트의 구체적인 세부사항을 포함하지 않아 다소 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 세부사항이 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6280020179065041</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 해당 학교와 전형 유형, 모집 단위 등을 고려해야 합니다. 주어진 정보를 바탕으로 추론해보겠습니다.
+주어진 정보에서 동의대학교의 정시모집군은 다음과 같이 나뉩니다:
+1. **가군 수능(일반학생전형)**: 이 전형에서는 수능 최저 기준이 없으므로, 5.27이라는 성적만으로는 충분히 추합 가능성이 있습니다.
+2. **나군 수능(일반학생전형)**: 이 전형에서도 수능 최저 기준이 없으므로, 5.27의 성적은 충분히 추합 가능성을 가지고 있습니다.
+따라서, 동의대학교의 정시모집군 중에서 가군 수능(일반학생전형)이나 나군 수능(일반학생전형)에 지원한다면 5.27이라는 성적만으로도 추합 가능성이 높습니다.
+하지만, 최종적으로는 해당 학교의 정시모집군별 수능 최저 기준을 확인해야 합니다. 만약 수능 최저 기준이 존재하고 그 기준을 충족하지 않는다면 추합 가능성은 낮아질 것입니다.
+따라서, 주어진 정보만으로 판단하면 5.27의 성적은 동의대학교의 정시모집군 중에서 가군 수능(일반학생전형)이나 나군 수능(일반학생전형)에 지원할 경우 추합 가능성이 높습니다.
+추가로, 정확한 판단을 위해서는 해당 학교의 공식 홈페이지나 입학처와 직접 문의하는 것이 가장 좋습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 합격 가능성을 판단하기 위해 필요한 정보를 언급하고 있으며, 정시 등급이 4.2인 경우 합격 가능성이 있을 수 있다고 언급하고 있습니다. 그러나 수능 최저 기준에 대한 정보가 부족하다는 점에서 일부 사실이 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일치하는 부분이 있지만, 수능 최저 기준에 대한 언급이 없거나 불확실하다는 점에서 일관성이 떨어집니다. 소스 텍스트는 정시 등급이 평균보다 높다고 명시하고 있으나, 생성된 응답은 그에 대한 확신이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 수능 최저 기준에 대한 언급이 불확실하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 정보를 바탕으로 합격 가능성을 평가하고 있으며, 대체로 정확합니다. 그러나 수능 최저 기준에 대한 정보가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성이 높습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 수능 최저 기준에 대한 불확실성이 의미 전달에 약간의 영향을 미칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6748919141337155</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정확한 합격 가능성을 판단하기 위해서는 해당 학과의 수능 최저 기준 및 평균 성적 등을 고려해야 합니다. 하지만 현재 제공된 정보만으로는 특정 학과의 수능 최저 기준을 확인할 수 없습니다.
+수능 최저 기준이 없거나, 평균 점수가 4.2 정도라면 합격 가능성은 있을 수 있습니다. 그러나 경쟁률이나 지원 인원 등 다양한 요인들이 합격 여부에 영향을 미치므로, 정확한 판단을 위해서는 동의대학교 소프트웨어공학부의 최신 정보를 확인하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 해당 학과의 최신 정보를 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 입학 기준에 대한 정보가 부정확합니다. 원문에서는 3.92의 성적이 평균보다 높아 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 수능 점수에만 초점을 맞추고 있으며, 평소 성적에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보가 포함되어 있습니다. 원문은 3.92의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 수능 점수에만 의존하는 것으로 해석하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 대한 답변을 제공하고 있으나, 원문에서 제공된 정보와의 관련성이 떨어집니다. 원문에서 언급된 평균 성적에 대한 정보가 제대로 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관성이 떨어집니다. 원문에서 제시된 정보와의 연관성이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 부분이 많습니다. 특히, 수능 점수에 대한 강조가 원문에서의 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6650711043859933</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>东义大是韩语中的“동의대학교”的音译，但您提供的信息似乎与东义大的招生政策不完全匹配。根据您提供的信息，化学环境工程学部的一般学生类型（가군 수능）的录取标准主要依赖于高考成绩，并且没有提到基于平时成绩的具体要求。
+为了确认是否可以被该专业录取，请参考以下几点：
+1. **高考成绩**：通常需要达到一定的高考分数线。根据您提供的信息，没有具体的最低分数要求。
+2. **平时成绩**：虽然您的平时成绩（3.92）看起来不错，但化学环境工程学部的一般学生类型主要依赖于高考成绩进行录取，并不直接基于平时成绩。
+建议您访问东义大学的官方网站或联系招生办公室以获取最准确的信息。如果需要进一步的帮助，请告诉我具体网址，我可以帮您查询相关信息。
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.デウ.アク.クル/main.do)
+이 정보를 바탕으로, 동의대학교 화학환경공학부 일반학생전형에 지원하려면 주요 요인은 수능 점수입니다. 제공된 평균 성적(3.92)은 직접적인 기준이 되지 않으므로, 수능 최저기준을 충족하는 것이 중요합니다. 동의대학교 웹사이트를 참조하거나 입학처에 문의하여 가장 정확한 정보를 얻는 것을 추천드립니다.
+[https://ipsi.デウ.アク.クル/main.do](https://ipsi.デウ.アク.クル/main.do)</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 수치(예: 평균 점수)와는 다소 차이가 있습니다. 또한, 지원자의 성적을 영어 등급으로 가정하는 부분은 원본 텍스트의 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 특정 단과대학의 수능 최저기준이 명시되어 있지 않다는 점에서 일관성이 떨어집니다. 원본 텍스트는 합격 가능성을 높게 평가하고 있으나, 생성된 응답은 더 많은 정보를 요구하는 방향으로 나아갑니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심적인 점수 정보와 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점에서 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 특정 수치나 기준에 대한 정확한 언급이 부족하여 정확성이 떨어집니다. 특히, 지원자의 성적을 영어 등급으로 가정하는 부분은 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 특정 세부사항에서 다소 벗어나는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6653378020183091</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 최신 정보를 확인하기 위해서는 해당 대학의 공식 웹사이트나 입학처와 직접 문의하는 것이 가장 정확할 것입니다. 하지만 현재 제공된 데이터만으로 판단해보겠습니다.
+화학환경공학부의 수능 일반학생전형은 국어, 수학, 영어, 탐구 영역을 반영하며, 각 영역별로 표준점수를 합산하여 최종 점수를 산출합니다. 지원자의 성적 4.25는 영어 등급으로 가정하겠습니다.
+현재 제공된 데이터에서는 특정 단과대학의 수능 최저기준이 명시되어 있지 않으므로, 정확한 판단을 위해서는 해당 대학의 공식 입학요건을 확인해야 합니다. 
+일반적으로 동의대학교의 경우 수능 최저 기준은 각 모집단위별로 다르게 설정되며, 특정 단과대학에 대한 최저기준이 명시되어 있지 않다면, 평균적인 점수를 참고할 수 있습니다.
+예를 들어, 2024학년도 인문사회과학대학 중어중국학과의 경우 국어+수학+탐구(2개) 표준 변환점수 합은 평균 281.29였습니다. 이는 참고로만 사용하며, 실제 수능 최저기준은 더 높을 수 있습니다.
+따라서, 정확한 판단을 위해서는 동의대학교 입학처에 직접 문의하거나, 해당 대학의 공식 웹사이트를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제공된 데이터에 기반하여 4.2라는 점수가 평균보다 약간 낮다는 점을 언급하고 있으며, 표준 편차를 고려한 분석을 포함하고 있습니다. 그러나, "확실한 합격을 보장받기는 어렵다"는 부분은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 평균 성적과 표준 편차를 적절히 반영하고 있습니다. 다만, 합격 가능성에 대한 해석이 다소 주관적일 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제인 영화학과의 합격 가능성에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 결론 부분에서 약간의 중복이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수치와 관련된 정보가 정확합니다. 그러나 합격 가능성에 대한 주관적인 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 다만, 주관적인 해석이 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6846141682733587</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, 평균 수능 4개 영역 등급이 5.04이고 표준 편차가 0.76입니다. 이는 영화학과 지원자들의 수능 점수가 상대적으로 높은 편이라는 것을 의미합니다.
+현재 제시된 성적인 4.2는 평균보다 약간 낮습니다. 하지만 표준 편차를 고려하면, 4.2는 평균에서 약 -0.8점 정도 차이가 나므로, 이 점수만으로는 확실한 합격을 보장받기는 어렵다고 볼 수 있습니다.
+하지만, 서류평가와 면접평가에서도 좋은 성적을 받았다면, 전체적으로 합격 가능성이 높아질 것입니다. 특히, 영화학과에서는 창의성과 표현력 등이 중요하게 평가되므로, 이 부분에서 우수한 결과를 얻었다면 큰 도움이 될 수 있습니다.
+결론적으로, 4.2라는 점수만으로는 확실한 합격을 보장받기는 어렵지만, 서류평가와 면접평가에서 좋은 성적을 받았다면 합격 가능성이 높아질 것입니다. 따라서, 지원서 작성과 면접 준비에 최선을 다하는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용도 원본의 정보와 충돌하지 않습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 면접 절차에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 내용도 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7857952754952964</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 입학사정관 2인이 평가위원으로 참여하여 수험생 1명을 대상으로 개별적 평가를 진행합니다. 또한, 면접 시 개인 신상 정보 (수험번호, 성명, 출신고교, 부모 직업 등) 노출 금지 및 교복 착용 금지 등의 블라인드 면접 방식을 적용하고 있습니다.
+이 절차를 통해 지원자의 학업역량과 전공적합성을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
